--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S540"/>
+  <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28972,6 +28972,374 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>357.82</v>
+      </c>
+      <c r="C541" t="n">
+        <v>347.5476923076924</v>
+      </c>
+      <c r="D541" t="n">
+        <v>359.68</v>
+      </c>
+      <c r="E541" t="n">
+        <v>347.54</v>
+      </c>
+      <c r="F541" t="n">
+        <v>345.2385714285714</v>
+      </c>
+      <c r="G541" t="n">
+        <v>341.3585714285715</v>
+      </c>
+      <c r="H541" t="n">
+        <v>338.17</v>
+      </c>
+      <c r="I541" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="J541" t="n">
+        <v>340.11</v>
+      </c>
+      <c r="K541" t="n">
+        <v>349.1642857142857</v>
+      </c>
+      <c r="L541" t="n">
+        <v>375.1685714285715</v>
+      </c>
+      <c r="M541" t="n">
+        <v>373.9485714285714</v>
+      </c>
+      <c r="N541" t="n">
+        <v>376.92</v>
+      </c>
+      <c r="O541" t="n">
+        <v>381.77</v>
+      </c>
+      <c r="P541" t="n">
+        <v>385.01</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>373.9585714285714</v>
+      </c>
+      <c r="R541" t="n">
+        <v>359.74</v>
+      </c>
+      <c r="S541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>379.24</v>
+      </c>
+      <c r="C542" t="n">
+        <v>343.3769230769231</v>
+      </c>
+      <c r="D542" t="n">
+        <v>342.0866666666667</v>
+      </c>
+      <c r="E542" t="n">
+        <v>340.9722222222222</v>
+      </c>
+      <c r="F542" t="n">
+        <v>339.5442857142857</v>
+      </c>
+      <c r="G542" t="n">
+        <v>339.9242857142857</v>
+      </c>
+      <c r="H542" t="n">
+        <v>333.4422222222223</v>
+      </c>
+      <c r="I542" t="n">
+        <v>334.8811111111111</v>
+      </c>
+      <c r="J542" t="n">
+        <v>327.785</v>
+      </c>
+      <c r="K542" t="n">
+        <v>348.4071428571428</v>
+      </c>
+      <c r="L542" t="n">
+        <v>381.8742857142857</v>
+      </c>
+      <c r="M542" t="n">
+        <v>390.3542857142857</v>
+      </c>
+      <c r="N542" t="n">
+        <v>390.77</v>
+      </c>
+      <c r="O542" t="n">
+        <v>397.27</v>
+      </c>
+      <c r="P542" t="n">
+        <v>393.2533333333333</v>
+      </c>
+      <c r="Q542" t="inlineStr"/>
+      <c r="R542" t="n">
+        <v>367.98</v>
+      </c>
+      <c r="S542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>387.01</v>
+      </c>
+      <c r="C543" t="n">
+        <v>345.2046153846153</v>
+      </c>
+      <c r="D543" t="n">
+        <v>343.99</v>
+      </c>
+      <c r="E543" t="n">
+        <v>341.49</v>
+      </c>
+      <c r="F543" t="n">
+        <v>359.5028571428572</v>
+      </c>
+      <c r="G543" t="n">
+        <v>348.4728571428572</v>
+      </c>
+      <c r="H543" t="n">
+        <v>338.8</v>
+      </c>
+      <c r="I543" t="n">
+        <v>341.27</v>
+      </c>
+      <c r="J543" t="n">
+        <v>341.43</v>
+      </c>
+      <c r="K543" t="n">
+        <v>350.5214285714285</v>
+      </c>
+      <c r="L543" t="inlineStr"/>
+      <c r="M543" t="n">
+        <v>410.8628571428572</v>
+      </c>
+      <c r="N543" t="n">
+        <v>419.65</v>
+      </c>
+      <c r="O543" t="n">
+        <v>435.78</v>
+      </c>
+      <c r="P543" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>396.5128571428572</v>
+      </c>
+      <c r="R543" t="inlineStr"/>
+      <c r="S543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:37+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>390.07</v>
+      </c>
+      <c r="C544" t="n">
+        <v>350.82</v>
+      </c>
+      <c r="D544" t="n">
+        <v>350.84</v>
+      </c>
+      <c r="E544" t="n">
+        <v>346.4266666666667</v>
+      </c>
+      <c r="F544" t="n">
+        <v>367.8542857142857</v>
+      </c>
+      <c r="G544" t="n">
+        <v>374.9742857142857</v>
+      </c>
+      <c r="H544" t="n">
+        <v>344.8166666666667</v>
+      </c>
+      <c r="I544" t="n">
+        <v>355.0233333333333</v>
+      </c>
+      <c r="J544" t="n">
+        <v>362.44</v>
+      </c>
+      <c r="K544" t="n">
+        <v>357.5371428571428</v>
+      </c>
+      <c r="L544" t="inlineStr"/>
+      <c r="M544" t="n">
+        <v>420.3542857142857</v>
+      </c>
+      <c r="N544" t="n">
+        <v>429.02</v>
+      </c>
+      <c r="O544" t="n">
+        <v>437.56</v>
+      </c>
+      <c r="P544" t="n">
+        <v>432.41</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>426.0942857142857</v>
+      </c>
+      <c r="R544" t="inlineStr"/>
+      <c r="S544" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:46+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>373.14</v>
+      </c>
+      <c r="C545" t="n">
+        <v>362.2553846153846</v>
+      </c>
+      <c r="D545" t="n">
+        <v>365.8033333333333</v>
+      </c>
+      <c r="E545" t="n">
+        <v>362.0011111111111</v>
+      </c>
+      <c r="F545" t="n">
+        <v>361.9128571428571</v>
+      </c>
+      <c r="G545" t="n">
+        <v>355.3328571428572</v>
+      </c>
+      <c r="H545" t="n">
+        <v>349.8611111111111</v>
+      </c>
+      <c r="I545" t="n">
+        <v>341.6155555555555</v>
+      </c>
+      <c r="J545" t="n">
+        <v>342.205</v>
+      </c>
+      <c r="K545" t="n">
+        <v>356.5214285714285</v>
+      </c>
+      <c r="L545" t="n">
+        <v>390.1228571428571</v>
+      </c>
+      <c r="M545" t="n">
+        <v>382.1328571428571</v>
+      </c>
+      <c r="N545" t="n">
+        <v>380.9</v>
+      </c>
+      <c r="O545" t="n">
+        <v>377.09</v>
+      </c>
+      <c r="P545" t="n">
+        <v>388.4066666666667</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>371.0828571428572</v>
+      </c>
+      <c r="R545" t="n">
+        <v>367.64</v>
+      </c>
+      <c r="S545" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="C546" t="n">
+        <v>364.2923076923077</v>
+      </c>
+      <c r="D546" t="n">
+        <v>363.3133333333333</v>
+      </c>
+      <c r="E546" t="n">
+        <v>363.5411111111111</v>
+      </c>
+      <c r="F546" t="n">
+        <v>367.2357142857143</v>
+      </c>
+      <c r="G546" t="n">
+        <v>357.9457142857143</v>
+      </c>
+      <c r="H546" t="n">
+        <v>351.6211111111111</v>
+      </c>
+      <c r="I546" t="n">
+        <v>349.5455555555556</v>
+      </c>
+      <c r="J546" t="n">
+        <v>355.91</v>
+      </c>
+      <c r="K546" t="n">
+        <v>367.0028571428572</v>
+      </c>
+      <c r="L546" t="n">
+        <v>390.6257142857143</v>
+      </c>
+      <c r="M546" t="n">
+        <v>397.9457142857143</v>
+      </c>
+      <c r="N546" t="n">
+        <v>395.95</v>
+      </c>
+      <c r="O546" t="n">
+        <v>396.07</v>
+      </c>
+      <c r="P546" t="n">
+        <v>403.5666666666667</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>389.4857142857143</v>
+      </c>
+      <c r="R546" t="n">
+        <v>386.88</v>
+      </c>
+      <c r="S546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28983,7 +29351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B568"/>
+  <dimension ref="A1:B574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34671,6 +35039,66 @@
       </c>
       <c r="B568" t="n">
         <v>0.87</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>-1.08</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -34839,28 +35267,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2278774828966461</v>
+        <v>-0.1792906168152595</v>
       </c>
       <c r="J2" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K2" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01638431098083604</v>
+        <v>0.01024445295026177</v>
       </c>
       <c r="M2" t="n">
-        <v>10.42540970658172</v>
+        <v>10.53249328690398</v>
       </c>
       <c r="N2" t="n">
-        <v>174.2467765427755</v>
+        <v>176.8768565760135</v>
       </c>
       <c r="O2" t="n">
-        <v>13.20025668473062</v>
+        <v>13.29950587713745</v>
       </c>
       <c r="P2" t="n">
-        <v>367.2072272336916</v>
+        <v>366.7490228686371</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -34916,28 +35344,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4348161805818913</v>
+        <v>-0.4269477856167751</v>
       </c>
       <c r="J3" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K3" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08236582957603289</v>
+        <v>0.0810937671519617</v>
       </c>
       <c r="M3" t="n">
-        <v>8.330850661944535</v>
+        <v>8.308096912276531</v>
       </c>
       <c r="N3" t="n">
-        <v>117.1003659927913</v>
+        <v>116.4828913621692</v>
       </c>
       <c r="O3" t="n">
-        <v>10.82129225151929</v>
+        <v>10.79272400101889</v>
       </c>
       <c r="P3" t="n">
-        <v>360.4092164309445</v>
+        <v>360.3334290505944</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -34993,28 +35421,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.593579443958326</v>
+        <v>-0.5930225655855319</v>
       </c>
       <c r="J4" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K4" t="n">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1623609643440461</v>
+        <v>0.1643496154866968</v>
       </c>
       <c r="M4" t="n">
-        <v>7.697568792417894</v>
+        <v>7.711417213892006</v>
       </c>
       <c r="N4" t="n">
-        <v>99.72686284009413</v>
+        <v>99.52236728202028</v>
       </c>
       <c r="O4" t="n">
-        <v>9.986333803758722</v>
+        <v>9.976089779168003</v>
       </c>
       <c r="P4" t="n">
-        <v>369.1873567355418</v>
+        <v>369.1815387912289</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -35070,28 +35498,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6099914731950007</v>
+        <v>-0.6111909322460581</v>
       </c>
       <c r="J5" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K5" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1438970929736642</v>
+        <v>0.146679042928481</v>
       </c>
       <c r="M5" t="n">
-        <v>8.515073016666737</v>
+        <v>8.514630166867095</v>
       </c>
       <c r="N5" t="n">
-        <v>122.0809194695535</v>
+        <v>121.5384535725975</v>
       </c>
       <c r="O5" t="n">
-        <v>11.04902346225916</v>
+        <v>11.02444799400848</v>
       </c>
       <c r="P5" t="n">
-        <v>366.3181115705254</v>
+        <v>366.3290516119698</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -35147,28 +35575,28 @@
         <v>0.0367</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8396967103304419</v>
+        <v>-0.8245682736130375</v>
       </c>
       <c r="J6" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K6" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1461716532218061</v>
+        <v>0.1441429199848572</v>
       </c>
       <c r="M6" t="n">
-        <v>11.52223373210985</v>
+        <v>11.51922635925877</v>
       </c>
       <c r="N6" t="n">
-        <v>222.0353425270483</v>
+        <v>220.9195516881704</v>
       </c>
       <c r="O6" t="n">
-        <v>14.90085039610318</v>
+        <v>14.86336273150092</v>
       </c>
       <c r="P6" t="n">
-        <v>372.7650028489917</v>
+        <v>372.617178102186</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -35224,28 +35652,28 @@
         <v>0.0428</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.035320445970267</v>
+        <v>-0.992289991117736</v>
       </c>
       <c r="J7" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K7" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1327678290657625</v>
+        <v>0.1252811605735261</v>
       </c>
       <c r="M7" t="n">
-        <v>15.14969814341121</v>
+        <v>15.12382532949655</v>
       </c>
       <c r="N7" t="n">
-        <v>360.5910076039531</v>
+        <v>360.0802692147236</v>
       </c>
       <c r="O7" t="n">
-        <v>18.98923399202699</v>
+        <v>18.97578112265009</v>
       </c>
       <c r="P7" t="n">
-        <v>365.2845652329346</v>
+        <v>364.8529020688952</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -35301,28 +35729,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6896120046471553</v>
+        <v>-0.6642875630777842</v>
       </c>
       <c r="J8" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K8" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L8" t="n">
-        <v>0.102959765967918</v>
+        <v>0.09800324088217105</v>
       </c>
       <c r="M8" t="n">
-        <v>11.80580289862556</v>
+        <v>11.77695998468934</v>
       </c>
       <c r="N8" t="n">
-        <v>224.1412863070102</v>
+        <v>222.8203216379887</v>
       </c>
       <c r="O8" t="n">
-        <v>14.97134884728194</v>
+        <v>14.92716723420719</v>
       </c>
       <c r="P8" t="n">
-        <v>350.7803854726567</v>
+        <v>350.5329981590845</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -35378,28 +35806,28 @@
         <v>0.1025</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7080577162778642</v>
+        <v>-0.6765567426981768</v>
       </c>
       <c r="J9" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K9" t="n">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09396449589057598</v>
+        <v>0.08790884556324996</v>
       </c>
       <c r="M9" t="n">
-        <v>12.41015595984202</v>
+        <v>12.41225895825798</v>
       </c>
       <c r="N9" t="n">
-        <v>261.7360638162524</v>
+        <v>260.7155656423298</v>
       </c>
       <c r="O9" t="n">
-        <v>16.17825898594322</v>
+        <v>16.14668899936856</v>
       </c>
       <c r="P9" t="n">
-        <v>349.1252022775392</v>
+        <v>348.8176351541506</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -35455,28 +35883,28 @@
         <v>0.0882</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6498659390265706</v>
+        <v>-0.606804011949335</v>
       </c>
       <c r="J10" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K10" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0914362214554395</v>
+        <v>0.08108957890793844</v>
       </c>
       <c r="M10" t="n">
-        <v>11.69732671426795</v>
+        <v>11.75545293649895</v>
       </c>
       <c r="N10" t="n">
-        <v>224.9272903660849</v>
+        <v>226.9334279815096</v>
       </c>
       <c r="O10" t="n">
-        <v>14.99757614970116</v>
+        <v>15.0643097412895</v>
       </c>
       <c r="P10" t="n">
-        <v>345.7652229855195</v>
+        <v>345.3425799056201</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -35532,28 +35960,28 @@
         <v>0.0775</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6428971166811436</v>
+        <v>-0.5958365675718776</v>
       </c>
       <c r="J11" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K11" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08657813771118528</v>
+        <v>0.07590766601500798</v>
       </c>
       <c r="M11" t="n">
-        <v>11.93303546437877</v>
+        <v>12.00120921987895</v>
       </c>
       <c r="N11" t="n">
-        <v>236.1479912989226</v>
+        <v>237.4324125611914</v>
       </c>
       <c r="O11" t="n">
-        <v>15.36710744736701</v>
+        <v>15.40884202531752</v>
       </c>
       <c r="P11" t="n">
-        <v>354.0237720741084</v>
+        <v>353.5636351031428</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -35609,28 +36037,28 @@
         <v>0.0377</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.604379340067512</v>
+        <v>-0.5622704072263974</v>
       </c>
       <c r="J12" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K12" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07399425657088921</v>
+        <v>0.06459532070645801</v>
       </c>
       <c r="M12" t="n">
-        <v>12.28731792132493</v>
+        <v>12.38842423181529</v>
       </c>
       <c r="N12" t="n">
-        <v>246.1776918846952</v>
+        <v>248.8896158734503</v>
       </c>
       <c r="O12" t="n">
-        <v>15.69005072919445</v>
+        <v>15.77623579544405</v>
       </c>
       <c r="P12" t="n">
-        <v>377.8120222458692</v>
+        <v>377.3941918028636</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -35686,28 +36114,28 @@
         <v>0.0443</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6006121242932514</v>
+        <v>-0.4888637976699133</v>
       </c>
       <c r="J13" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K13" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03642021088693481</v>
+        <v>0.02406031539380282</v>
       </c>
       <c r="M13" t="n">
-        <v>17.17608357278015</v>
+        <v>17.50980647189147</v>
       </c>
       <c r="N13" t="n">
-        <v>506.0753716030515</v>
+        <v>522.2303051361571</v>
       </c>
       <c r="O13" t="n">
-        <v>22.49611903424792</v>
+        <v>22.85235885277835</v>
       </c>
       <c r="P13" t="n">
-        <v>375.3020539174412</v>
+        <v>374.1890965249635</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -35763,28 +36191,28 @@
         <v>0.0475</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5770670087167874</v>
+        <v>-0.4410575156608036</v>
       </c>
       <c r="J14" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K14" t="n">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03128037153146013</v>
+        <v>0.01797556251423238</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3894877293313</v>
+        <v>18.79018389960088</v>
       </c>
       <c r="N14" t="n">
-        <v>555.5004198857735</v>
+        <v>581.9037233831542</v>
       </c>
       <c r="O14" t="n">
-        <v>23.56905640635139</v>
+        <v>24.12268068401923</v>
       </c>
       <c r="P14" t="n">
-        <v>370.9117848036662</v>
+        <v>369.5741505778685</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -35840,28 +36268,28 @@
         <v>0.0616</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3198944855292087</v>
+        <v>-0.1656655107569627</v>
       </c>
       <c r="J15" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K15" t="n">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007216697679961581</v>
+        <v>0.001902984942179997</v>
       </c>
       <c r="M15" t="n">
-        <v>21.72865690540406</v>
+        <v>22.27170333802759</v>
       </c>
       <c r="N15" t="n">
-        <v>752.1734340545109</v>
+        <v>783.4685382625565</v>
       </c>
       <c r="O15" t="n">
-        <v>27.42578046390861</v>
+        <v>27.99050800293836</v>
       </c>
       <c r="P15" t="n">
-        <v>367.6749500721131</v>
+        <v>366.1615308316611</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -35917,28 +36345,28 @@
         <v>0.0333</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.361327166967677</v>
+        <v>-0.1902965185778869</v>
       </c>
       <c r="J16" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K16" t="n">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L16" t="n">
-        <v>0.007631223682254107</v>
+        <v>0.002102478183357515</v>
       </c>
       <c r="M16" t="n">
-        <v>23.47515106195275</v>
+        <v>24.01028023302892</v>
       </c>
       <c r="N16" t="n">
-        <v>921.6397700814459</v>
+        <v>951.6035283154764</v>
       </c>
       <c r="O16" t="n">
-        <v>30.3585205515922</v>
+        <v>30.84807171146158</v>
       </c>
       <c r="P16" t="n">
-        <v>364.8265173259943</v>
+        <v>363.1801439997768</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -35994,28 +36422,28 @@
         <v>0.0398</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3572554319064238</v>
+        <v>0.4493286816214476</v>
       </c>
       <c r="J17" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K17" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00870989114139975</v>
+        <v>0.01370603591717223</v>
       </c>
       <c r="M17" t="n">
-        <v>22.96003551293484</v>
+        <v>23.10202138933618</v>
       </c>
       <c r="N17" t="n">
-        <v>808.9222901470753</v>
+        <v>820.0970750591179</v>
       </c>
       <c r="O17" t="n">
-        <v>28.44155920738304</v>
+        <v>28.63733708044653</v>
       </c>
       <c r="P17" t="n">
-        <v>346.7646002147408</v>
+        <v>345.882557967665</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -36071,28 +36499,28 @@
         <v>0.0516</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.004176895324845125</v>
+        <v>0.07596207863767522</v>
       </c>
       <c r="J18" t="n">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K18" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L18" t="n">
-        <v>1.528149454976813e-06</v>
+        <v>0.0005057070631812044</v>
       </c>
       <c r="M18" t="n">
-        <v>20.07362827902863</v>
+        <v>20.22970782485744</v>
       </c>
       <c r="N18" t="n">
-        <v>645.6227780352824</v>
+        <v>653.1745043063221</v>
       </c>
       <c r="O18" t="n">
-        <v>25.40910817079738</v>
+        <v>25.55727889088199</v>
       </c>
       <c r="P18" t="n">
-        <v>336.0767977187948</v>
+        <v>335.3238028574848</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -36129,7 +36557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S540"/>
+  <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77481,6 +77909,568 @@
         </is>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:45+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-41.7742052282932,171.45586525007027</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-41.77427991283195,171.45676784233402</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-41.77393603774709,171.45744601050342</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>-41.773534215825144,171.4581465283584</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>-41.7730571339831,171.4587826525832</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>-41.77252165299379,171.45931260810272</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>-41.77185954781601,171.45953912035253</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>-41.77120095102321,171.45974441059192</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>-41.77052438087864,171.45978974784973</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>-41.76984849627254,171.45976185621586</t>
+        </is>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>-41.7691889074495,171.4595287570973</t>
+        </is>
+      </c>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>-41.7686009729764,171.45939227281684</t>
+        </is>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>-41.76801097091614,171.4590298543111</t>
+        </is>
+      </c>
+      <c r="O541" t="inlineStr">
+        <is>
+          <t>-41.767414978745485,171.4586425834648</t>
+        </is>
+      </c>
+      <c r="P541" t="inlineStr">
+        <is>
+          <t>-41.76684135449773,171.45822559278665</t>
+        </is>
+      </c>
+      <c r="Q541" t="inlineStr">
+        <is>
+          <t>-41.766213601245525,171.4579174319965</t>
+        </is>
+      </c>
+      <c r="R541" t="inlineStr">
+        <is>
+          <t>-41.76556547445011,171.4576384409185</t>
+        </is>
+      </c>
+      <c r="S541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-04 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>-41.774012353319286,171.45586189454852</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>-41.77431670357778,171.45677793597073</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>-41.774065347149474,171.45756829673604</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>-41.773575108523275,171.4582036093343</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>-41.773089437965275,171.4588358509171</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>-41.772526737145995,171.45932846897685</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>-41.77186877208067,171.45959464186782</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>-41.771203331147966,171.4597636233895</t>
+        </is>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>-41.77053607244347,171.45993718248693</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>-41.76984918708838,171.45977091705038</t>
+        </is>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>-41.76919091844052,171.4594481393554</t>
+        </is>
+      </c>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>-41.76864091169344,171.45920227942196</t>
+        </is>
+      </c>
+      <c r="N542" t="inlineStr">
+        <is>
+          <t>-41.768056393025375,171.45887469771208</t>
+        </is>
+      </c>
+      <c r="O542" t="inlineStr">
+        <is>
+          <t>-41.767470057725525,171.45847126987576</t>
+        </is>
+      </c>
+      <c r="P542" t="inlineStr">
+        <is>
+          <t>-41.76687449140741,171.45813686533154</t>
+        </is>
+      </c>
+      <c r="Q542" t="inlineStr"/>
+      <c r="R542" t="inlineStr">
+        <is>
+          <t>-41.76560018975225,171.45755084396126</t>
+        </is>
+      </c>
+      <c r="S542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:30+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-41.77394238886648,171.45586067735013</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-41.77430058133295,171.4567735127896</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-41.77405135782832,171.4575550671864</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-41.77357188470473,171.45819910929194</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>-41.77297621183544,171.45864939005813</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>-41.772496434756775,171.45923393567733</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>-41.77185831863467,171.4595317218346</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>-41.77119393804958,171.45968780075867</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>-41.770523128708,171.45977395769333</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>-41.76984725801593,171.45974561509797</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>-41.76869083811948,171.45896477081482</t>
+        </is>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>-41.76815110645468,171.4585511647086</t>
+        </is>
+      </c>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>-41.767606901210044,171.45804563725878</t>
+        </is>
+      </c>
+      <c r="P543" t="inlineStr">
+        <is>
+          <t>-41.766991655881576,171.45782314327408</t>
+        </is>
+      </c>
+      <c r="Q543" t="inlineStr">
+        <is>
+          <t>-41.76630862303457,171.4576776617058</t>
+        </is>
+      </c>
+      <c r="R543" t="inlineStr"/>
+      <c r="S543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:37+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-41.77391483529796,171.45586019799023</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-41.774251047498836,171.4567599230627</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-41.774001010959935,171.4575074547564</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>-41.77354114773092,171.45815620440436</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>-41.77292883361103,171.4585713679088</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>-41.772402493825865,171.45894087354813</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>-41.77184657960389,171.45946106404597</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>-41.77117371739891,171.459524577791</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>-41.770503198034284,171.4595226311284</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>-41.76984085684452,171.4596616570775</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr"/>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>-41.76871394405118,171.45885485099663</t>
+        </is>
+      </c>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>-41.76818183564679,171.45844619552557</t>
+        </is>
+      </c>
+      <c r="O544" t="inlineStr">
+        <is>
+          <t>-41.767613226317856,171.45802596372704</t>
+        </is>
+      </c>
+      <c r="P544" t="inlineStr">
+        <is>
+          <t>-41.76703189411851,171.45771539972387</t>
+        </is>
+      </c>
+      <c r="Q544" t="inlineStr">
+        <is>
+          <t>-41.766433249578974,171.457363186149</t>
+        </is>
+      </c>
+      <c r="R544" t="inlineStr"/>
+      <c r="S544" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:46+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>-41.774067280366616,171.45586285013567</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>-41.77415017489392,171.4567322484829</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>-41.77389103177387,171.45740344907756</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>-41.7734441770775,171.45802084617463</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>-41.7729625397462,171.45862687493064</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>-41.772472117844345,171.45915807529786</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>-41.77183673742855,171.45940182374167</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>-41.77119343000407,171.459683699744</t>
+        </is>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>-41.77052239353104,171.45976468695787</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>-41.7698417835909,171.45967381226933</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>-41.76919339204455,171.45934897300188</t>
+        </is>
+      </c>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>-41.76862089716372,171.45929749122215</t>
+        </is>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>-41.76802402364522,171.4589852678157</t>
+        </is>
+      </c>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>-41.767398348395695,171.4586943090598</t>
+        </is>
+      </c>
+      <c r="P545" t="inlineStr">
+        <is>
+          <t>-41.76685500857457,171.45818903263708</t>
+        </is>
+      </c>
+      <c r="Q545" t="inlineStr">
+        <is>
+          <t>-41.76620148574992,171.45794800311407</t>
+        </is>
+      </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>-41.76559875732608,171.45755445840064</t>
+        </is>
+      </c>
+      <c r="S545" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:24+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-41.77411626448711,171.4558637023316</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-41.77413220700287,171.45672731896863</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-41.77390933306148,171.45742075630238</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>-41.773434588617555,171.45800746198432</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>-41.77293234281075,171.45857714682901</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>-41.77246285593368,171.45912918138697</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>-41.77183330349947,171.4593811548823</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>-41.77118177105455,171.45958958741036</t>
+        </is>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>-41.77050939263357,171.4596007445069</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>-41.76983222018451,171.45954837959852</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>-41.76919354283993,171.45934292752952</t>
+        </is>
+      </c>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>-41.76865939245835,171.45911436355792</t>
+        </is>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>-41.76807338116728,171.45881666796888</t>
+        </is>
+      </c>
+      <c r="O546" t="inlineStr">
+        <is>
+          <t>-41.76746579355574,171.45848453287354</t>
+        </is>
+      </c>
+      <c r="P546" t="inlineStr">
+        <is>
+          <t>-41.76691594929411,171.45802585722043</t>
+        </is>
+      </c>
+      <c r="Q546" t="inlineStr">
+        <is>
+          <t>-41.7662790175551,171.45775236599007</t>
+        </is>
+      </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>-41.765679815610824,171.45734992340462</t>
+        </is>
+      </c>
+      <c r="S546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -35112,7 +35112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35203,35 +35203,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -35290,27 +35295,28 @@
       <c r="P2" t="n">
         <v>366.7490228686371</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (171.45592130428602 -41.77742719393727, 171.455780700503 -41.769345280795136)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>171.455921304286</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.77742719393727</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>171.455780700503</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.76934528079514</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>171.4558510023945</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.7733862373662</v>
       </c>
     </row>
@@ -35367,27 +35373,28 @@
       <c r="P3" t="n">
         <v>360.3334290505944</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (171.4576089765205 -41.77734566040465, 171.4554367731144 -41.76942788214895)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>171.4576089765205</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.77734566040465</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>171.4554367731144</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.76942788214895</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>171.4565228748174</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.7733867712768</v>
       </c>
     </row>
@@ -35444,27 +35451,28 @@
       <c r="P4" t="n">
         <v>369.1815387912289</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (171.45994614030758 -41.77657962829178, 171.4537050445233 -41.769979910392244)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>171.4599461403076</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.77657962829178</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>171.4537050445233</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.76997991039224</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>171.4568255924154</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.77327976934201</v>
       </c>
     </row>
@@ -35521,27 +35529,28 @@
       <c r="P5" t="n">
         <v>366.3290516119698</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (171.46116712042522 -41.77569805286729, 171.4533614916566 -41.77010594251736)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>171.4611671204252</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.77569805286729</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>171.4533614916566</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.77010594251736</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>171.4572643060409</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.77290199769233</v>
       </c>
     </row>
@@ -35598,27 +35607,28 @@
       <c r="P6" t="n">
         <v>372.617178102186</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (171.46200810877835 -41.77501564730965, 171.45361661762155 -41.76991985866004)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>171.4620081087783</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.77501564730965</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>171.4536166176215</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.76991985866004</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>171.4578123631999</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.77246775298484</v>
       </c>
     </row>
@@ -35675,27 +35685,28 @@
       <c r="P7" t="n">
         <v>364.8529020688952</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (171.46308755253546 -41.773731615444795, 171.45315168819556 -41.770546565045166)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>171.4630875525355</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.7737316154448</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>171.4531516881956</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.77054656504517</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>171.4581196203655</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.77213909024498</v>
       </c>
     </row>
@@ -35752,27 +35763,28 @@
       <c r="P8" t="n">
         <v>350.5329981590845</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (171.46351052312156 -41.772519276901726, 171.45295743786048 -41.77076586852874)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>171.4635105231216</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-41.77251927690173</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>171.4529574378605</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-41.77076586852874</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>171.458233980491</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-41.77164257271524</v>
       </c>
     </row>
@@ -35829,27 +35841,28 @@
       <c r="P9" t="n">
         <v>348.8176351541506</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (171.46373798862288 -41.771695611846766, 171.45307297089198 -41.7703742737172)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>171.4637379886229</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-41.77169561184677</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>171.453072970892</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-41.7703742737172</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>171.4584054797574</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-41.77103494278198</v>
       </c>
     </row>
@@ -35906,27 +35919,28 @@
       <c r="P10" t="n">
         <v>345.3425799056201</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (171.46385824781785 -41.77084694202134, 171.45310818706932 -41.76999433054029)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>171.4638582478179</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-41.77084694202134</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>171.4531081870693</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-41.76999433054029</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>171.4584832174436</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-41.77042063628082</v>
       </c>
     </row>
@@ -35983,27 +35997,28 @@
       <c r="P11" t="n">
         <v>353.5636351031428</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (171.4639403769595 -41.770166997660596, 171.45318586104455 -41.76934693743742)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>171.4639403769595</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-41.7701669976606</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>171.4531858610445</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-41.76934693743742</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>171.458563119002</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-41.76975696754901</v>
       </c>
     </row>
@@ -36060,27 +36075,28 @@
       <c r="P12" t="n">
         <v>377.3941918028636</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (171.46403912036146 -41.76907630705618, 171.45323490529356 -41.769345735377165)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>171.4640391203615</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-41.76907630705618</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>171.4532349052936</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-41.76934573537716</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>171.4586370128275</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-41.76921102121668</v>
       </c>
     </row>
@@ -36137,27 +36153,28 @@
       <c r="P13" t="n">
         <v>374.1890965249635</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (171.4637228826954 -41.76769053146383, 171.453316158858 -41.76987805801144)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>171.4637228826954</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-41.76769053146383</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>171.453316158858</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-41.76987805801144</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>171.4585195207767</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-41.76878429473764</v>
       </c>
     </row>
@@ -36214,27 +36231,28 @@
       <c r="P14" t="n">
         <v>369.5741505778685</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (171.4632522723133 -41.76677475160707, 171.45318618766422 -41.769721514198814)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>171.4632522723133</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-41.76677475160707</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>171.4531861876642</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-41.76972151419881</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>171.4582192299887</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-41.76824813290294</v>
       </c>
     </row>
@@ -36291,27 +36309,28 @@
       <c r="P15" t="n">
         <v>366.1615308316611</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (171.46286200186495 -41.766058283320795, 171.45293109345997 -41.76925108774022)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>171.4628620018649</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-41.7660582833208</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>171.45293109346</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-41.76925108774022</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>171.4578965476625</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-41.76765468553051</v>
       </c>
     </row>
@@ -36368,27 +36387,28 @@
       <c r="P16" t="n">
         <v>363.1801439997768</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (171.46236956360642 -41.76529359627686, 171.45269877197904 -41.768905249822325)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>171.4623695636064</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-41.76529359627686</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>171.452698771979</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-41.76890524982232</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>171.4575341677927</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-41.76709942304959</v>
       </c>
     </row>
@@ -36445,27 +36465,28 @@
       <c r="P17" t="n">
         <v>345.882557967665</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (171.46189281234354 -41.764638029196924, 171.45234147518963 -41.768423167561835)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>171.4618928123435</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-41.76463802919692</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>171.4523414751896</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-41.76842316756183</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>171.4571171437666</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-41.76653059837938</v>
       </c>
     </row>
@@ -36522,27 +36543,28 @@
       <c r="P18" t="n">
         <v>335.3238028574848</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (171.46146263777715 -41.76404981499881, 171.4519113437704 -41.76783494212423)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>171.4614626377771</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-41.76404981499881</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>171.4519113437704</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-41.76783494212423</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>171.4566869907738</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-41.76594237856152</v>
       </c>
     </row>

--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S546"/>
+  <dimension ref="A1:S553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29340,6 +29340,401 @@
         </is>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:26+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>351.91</v>
+      </c>
+      <c r="C547" t="n">
+        <v>346.0369230769231</v>
+      </c>
+      <c r="D547" t="n">
+        <v>358.59</v>
+      </c>
+      <c r="E547" t="n">
+        <v>357.3533333333333</v>
+      </c>
+      <c r="F547" t="n">
+        <v>358.2685714285714</v>
+      </c>
+      <c r="G547" t="n">
+        <v>352.9085714285715</v>
+      </c>
+      <c r="H547" t="n">
+        <v>349.7133333333333</v>
+      </c>
+      <c r="I547" t="n">
+        <v>344.9766666666667</v>
+      </c>
+      <c r="J547" t="n">
+        <v>349.235</v>
+      </c>
+      <c r="K547" t="n">
+        <v>359.3942857142857</v>
+      </c>
+      <c r="L547" t="n">
+        <v>379.2385714285714</v>
+      </c>
+      <c r="M547" t="n">
+        <v>384.2485714285714</v>
+      </c>
+      <c r="N547" t="n">
+        <v>378.96</v>
+      </c>
+      <c r="O547" t="n">
+        <v>369.43</v>
+      </c>
+      <c r="P547" t="n">
+        <v>373.26</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>363.7085714285714</v>
+      </c>
+      <c r="R547" t="n">
+        <v>363.83</v>
+      </c>
+      <c r="S547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>365.73</v>
+      </c>
+      <c r="C548" t="n">
+        <v>355.8638461538461</v>
+      </c>
+      <c r="D548" t="n">
+        <v>362.0366666666667</v>
+      </c>
+      <c r="E548" t="n">
+        <v>364.7988888888889</v>
+      </c>
+      <c r="F548" t="n">
+        <v>366.6785714285714</v>
+      </c>
+      <c r="G548" t="n">
+        <v>357.8085714285714</v>
+      </c>
+      <c r="H548" t="n">
+        <v>338.6888888888889</v>
+      </c>
+      <c r="I548" t="n">
+        <v>346.7044444444444</v>
+      </c>
+      <c r="J548" t="n">
+        <v>348.94</v>
+      </c>
+      <c r="K548" t="n">
+        <v>362.8842857142857</v>
+      </c>
+      <c r="L548" t="n">
+        <v>384.2085714285714</v>
+      </c>
+      <c r="M548" t="n">
+        <v>383.8985714285715</v>
+      </c>
+      <c r="N548" t="n">
+        <v>377.27</v>
+      </c>
+      <c r="O548" t="n">
+        <v>378.45</v>
+      </c>
+      <c r="P548" t="n">
+        <v>382.0233333333333</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>377.8685714285714</v>
+      </c>
+      <c r="R548" t="n">
+        <v>371.83</v>
+      </c>
+      <c r="S548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>363.29</v>
+      </c>
+      <c r="C549" t="n">
+        <v>357.3261538461539</v>
+      </c>
+      <c r="D549" t="n">
+        <v>364.4666666666667</v>
+      </c>
+      <c r="E549" t="n">
+        <v>361.7288888888889</v>
+      </c>
+      <c r="F549" t="n">
+        <v>371.2685714285714</v>
+      </c>
+      <c r="G549" t="n">
+        <v>362.1385714285714</v>
+      </c>
+      <c r="H549" t="n">
+        <v>346.6388888888889</v>
+      </c>
+      <c r="I549" t="n">
+        <v>338.4844444444445</v>
+      </c>
+      <c r="J549" t="n">
+        <v>339.835</v>
+      </c>
+      <c r="K549" t="n">
+        <v>352.5642857142857</v>
+      </c>
+      <c r="L549" t="n">
+        <v>387.4285714285714</v>
+      </c>
+      <c r="M549" t="n">
+        <v>382.0285714285715</v>
+      </c>
+      <c r="N549" t="n">
+        <v>379.67</v>
+      </c>
+      <c r="O549" t="n">
+        <v>377.64</v>
+      </c>
+      <c r="P549" t="n">
+        <v>378.1233333333333</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>371.0985714285715</v>
+      </c>
+      <c r="R549" t="n">
+        <v>370.13</v>
+      </c>
+      <c r="S549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:04+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr"/>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr"/>
+      <c r="I550" t="n">
+        <v>370.4444444444445</v>
+      </c>
+      <c r="J550" t="n">
+        <v>365.76</v>
+      </c>
+      <c r="K550" t="n">
+        <v>348.1942857142857</v>
+      </c>
+      <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr"/>
+      <c r="N550" t="n">
+        <v>357.61</v>
+      </c>
+      <c r="O550" t="inlineStr"/>
+      <c r="P550" t="inlineStr"/>
+      <c r="Q550" t="inlineStr"/>
+      <c r="R550" t="n">
+        <v>313.84</v>
+      </c>
+      <c r="S550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:10+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>362.77</v>
+      </c>
+      <c r="C551" t="n">
+        <v>353.5661538461539</v>
+      </c>
+      <c r="D551" t="n">
+        <v>358.7533333333333</v>
+      </c>
+      <c r="E551" t="n">
+        <v>362.1877777777778</v>
+      </c>
+      <c r="F551" t="n">
+        <v>365.5428571428571</v>
+      </c>
+      <c r="G551" t="n">
+        <v>341.5328571428571</v>
+      </c>
+      <c r="H551" t="n">
+        <v>335.4577777777778</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>334.28</v>
+      </c>
+      <c r="K551" t="n">
+        <v>341.8714285714286</v>
+      </c>
+      <c r="L551" t="n">
+        <v>373.6228571428571</v>
+      </c>
+      <c r="M551" t="n">
+        <v>361.1428571428571</v>
+      </c>
+      <c r="N551" t="n">
+        <v>351.09</v>
+      </c>
+      <c r="O551" t="n">
+        <v>365.39</v>
+      </c>
+      <c r="P551" t="n">
+        <v>376.3166666666667</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>355.8228571428572</v>
+      </c>
+      <c r="R551" t="n">
+        <v>353.02</v>
+      </c>
+      <c r="S551" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:08+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>356.48</v>
+      </c>
+      <c r="C552" t="n">
+        <v>345.34</v>
+      </c>
+      <c r="D552" t="n">
+        <v>353.1166666666667</v>
+      </c>
+      <c r="E552" t="n">
+        <v>353.4255555555555</v>
+      </c>
+      <c r="F552" t="n">
+        <v>355.8557142857143</v>
+      </c>
+      <c r="G552" t="n">
+        <v>319.8857142857143</v>
+      </c>
+      <c r="H552" t="n">
+        <v>324.0155555555555</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>314.235</v>
+      </c>
+      <c r="K552" t="n">
+        <v>317.2728571428571</v>
+      </c>
+      <c r="L552" t="n">
+        <v>355.2957142857143</v>
+      </c>
+      <c r="M552" t="n">
+        <v>343.4157142857143</v>
+      </c>
+      <c r="N552" t="n">
+        <v>334.96</v>
+      </c>
+      <c r="O552" t="n">
+        <v>329.81</v>
+      </c>
+      <c r="P552" t="inlineStr"/>
+      <c r="Q552" t="inlineStr"/>
+      <c r="R552" t="inlineStr"/>
+      <c r="S552" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:19:17+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr"/>
+      <c r="C553" t="n">
+        <v>346.8930769230769</v>
+      </c>
+      <c r="D553" t="n">
+        <v>353.87</v>
+      </c>
+      <c r="E553" t="n">
+        <v>351.34</v>
+      </c>
+      <c r="F553" t="n">
+        <v>352.0685714285714</v>
+      </c>
+      <c r="G553" t="n">
+        <v>359.0685714285714</v>
+      </c>
+      <c r="H553" t="n">
+        <v>332.07</v>
+      </c>
+      <c r="I553" t="n">
+        <v>355.11</v>
+      </c>
+      <c r="J553" t="n">
+        <v>350</v>
+      </c>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr"/>
+      <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr"/>
+      <c r="P553" t="n">
+        <v>560.01</v>
+      </c>
+      <c r="Q553" t="n">
+        <v>530.2985714285714</v>
+      </c>
+      <c r="R553" t="n">
+        <v>502.78</v>
+      </c>
+      <c r="S553" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29351,7 +29746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B574"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35099,6 +35494,86 @@
       </c>
       <c r="B574" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -35272,28 +35747,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1792906168152595</v>
+        <v>-0.1850925957748051</v>
       </c>
       <c r="J2" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K2" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01024445295026177</v>
+        <v>0.01121057176595353</v>
       </c>
       <c r="M2" t="n">
-        <v>10.53249328690398</v>
+        <v>10.43751690101116</v>
       </c>
       <c r="N2" t="n">
-        <v>176.8768565760135</v>
+        <v>174.6935021789555</v>
       </c>
       <c r="O2" t="n">
-        <v>13.29950587713745</v>
+        <v>13.21716694980265</v>
       </c>
       <c r="P2" t="n">
-        <v>366.7490228686371</v>
+        <v>366.8042662993947</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35350,28 +35825,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4269477856167751</v>
+        <v>-0.4231854011113473</v>
       </c>
       <c r="J3" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K3" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0810937671519617</v>
+        <v>0.08165410925142491</v>
       </c>
       <c r="M3" t="n">
-        <v>8.308096912276531</v>
+        <v>8.25612099843182</v>
       </c>
       <c r="N3" t="n">
-        <v>116.4828913621692</v>
+        <v>115.1849697636349</v>
       </c>
       <c r="O3" t="n">
-        <v>10.79272400101889</v>
+        <v>10.73242608936278</v>
       </c>
       <c r="P3" t="n">
-        <v>360.3334290505944</v>
+        <v>360.297191401136</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35428,28 +35903,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5930225655855319</v>
+        <v>-0.5813285191972671</v>
       </c>
       <c r="J4" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K4" t="n">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1643496154866968</v>
+        <v>0.1620781716440216</v>
       </c>
       <c r="M4" t="n">
-        <v>7.711417213892006</v>
+        <v>7.671425273918952</v>
       </c>
       <c r="N4" t="n">
-        <v>99.52236728202028</v>
+        <v>98.62040422612861</v>
       </c>
       <c r="O4" t="n">
-        <v>9.976089779168003</v>
+        <v>9.930780645353547</v>
       </c>
       <c r="P4" t="n">
-        <v>369.1815387912289</v>
+        <v>369.0678620593474</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35506,28 +35981,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6111909322460581</v>
+        <v>-0.591008288816436</v>
       </c>
       <c r="J5" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K5" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L5" t="n">
-        <v>0.146679042928481</v>
+        <v>0.1406772641981625</v>
       </c>
       <c r="M5" t="n">
-        <v>8.514630166867095</v>
+        <v>8.502199092522735</v>
       </c>
       <c r="N5" t="n">
-        <v>121.5384535725975</v>
+        <v>120.979749829045</v>
       </c>
       <c r="O5" t="n">
-        <v>11.02444799400848</v>
+        <v>10.99907949916924</v>
       </c>
       <c r="P5" t="n">
-        <v>366.3290516119698</v>
+        <v>366.1328961533972</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35584,28 +36059,28 @@
         <v>0.0367</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8245682736130375</v>
+        <v>-0.797363106669129</v>
       </c>
       <c r="J6" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K6" t="n">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1441429199848572</v>
+        <v>0.1383971473314003</v>
       </c>
       <c r="M6" t="n">
-        <v>11.51922635925877</v>
+        <v>11.4927182055753</v>
       </c>
       <c r="N6" t="n">
-        <v>220.9195516881704</v>
+        <v>219.8012092772196</v>
       </c>
       <c r="O6" t="n">
-        <v>14.86336273150092</v>
+        <v>14.82569422581012</v>
       </c>
       <c r="P6" t="n">
-        <v>372.617178102186</v>
+        <v>372.3498035735006</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35662,28 +36137,28 @@
         <v>0.0428</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.992289991117736</v>
+        <v>-0.9641973195358137</v>
       </c>
       <c r="J7" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K7" t="n">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1252811605735261</v>
+        <v>0.1211379077208903</v>
       </c>
       <c r="M7" t="n">
-        <v>15.12382532949655</v>
+        <v>15.13033505975732</v>
       </c>
       <c r="N7" t="n">
-        <v>360.0802692147236</v>
+        <v>359.1017261227632</v>
       </c>
       <c r="O7" t="n">
-        <v>18.97578112265009</v>
+        <v>18.94997958106455</v>
       </c>
       <c r="P7" t="n">
-        <v>364.8529020688952</v>
+        <v>364.5690250481297</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35740,28 +36215,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6642875630777842</v>
+        <v>-0.6533741322405706</v>
       </c>
       <c r="J8" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K8" t="n">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09800324088217105</v>
+        <v>0.09702569737484723</v>
       </c>
       <c r="M8" t="n">
-        <v>11.77695998468934</v>
+        <v>11.72486820020883</v>
       </c>
       <c r="N8" t="n">
-        <v>222.8203216379887</v>
+        <v>221.0022362209005</v>
       </c>
       <c r="O8" t="n">
-        <v>14.92716723420719</v>
+        <v>14.8661439593763</v>
       </c>
       <c r="P8" t="n">
-        <v>350.5329981590845</v>
+        <v>350.4259633715087</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35818,28 +36293,28 @@
         <v>0.1025</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6765567426981768</v>
+        <v>-0.6342686620670973</v>
       </c>
       <c r="J9" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K9" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08790884556324996</v>
+        <v>0.07817667230488456</v>
       </c>
       <c r="M9" t="n">
-        <v>12.41225895825798</v>
+        <v>12.50477616165406</v>
       </c>
       <c r="N9" t="n">
-        <v>260.7155656423298</v>
+        <v>263.3955049560393</v>
       </c>
       <c r="O9" t="n">
-        <v>16.14668899936856</v>
+        <v>16.22946409947166</v>
       </c>
       <c r="P9" t="n">
-        <v>348.8176351541506</v>
+        <v>348.4006678476354</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35896,28 +36371,28 @@
         <v>0.0882</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.606804011949335</v>
+        <v>-0.5654527982271902</v>
       </c>
       <c r="J10" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K10" t="n">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08108957890793844</v>
+        <v>0.07147868805084234</v>
       </c>
       <c r="M10" t="n">
-        <v>11.75545293649895</v>
+        <v>11.84586502865405</v>
       </c>
       <c r="N10" t="n">
-        <v>226.9334279815096</v>
+        <v>229.6606984956121</v>
       </c>
       <c r="O10" t="n">
-        <v>15.0643097412895</v>
+        <v>15.15456032010207</v>
       </c>
       <c r="P10" t="n">
-        <v>345.3425799056201</v>
+        <v>344.9332313813339</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35974,28 +36449,28 @@
         <v>0.0775</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5958365675718776</v>
+        <v>-0.5726830746390771</v>
       </c>
       <c r="J11" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K11" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07590766601500798</v>
+        <v>0.07121309957949407</v>
       </c>
       <c r="M11" t="n">
-        <v>12.00120921987895</v>
+        <v>12.04850801328822</v>
       </c>
       <c r="N11" t="n">
-        <v>237.4324125611914</v>
+        <v>238.2881303804591</v>
       </c>
       <c r="O11" t="n">
-        <v>15.40884202531752</v>
+        <v>15.43658415519635</v>
       </c>
       <c r="P11" t="n">
-        <v>353.5636351031428</v>
+        <v>353.3359231606476</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36052,28 +36527,28 @@
         <v>0.0377</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5622704072263974</v>
+        <v>-0.5319863098788747</v>
       </c>
       <c r="J12" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K12" t="n">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06459532070645801</v>
+        <v>0.05875102510295283</v>
       </c>
       <c r="M12" t="n">
-        <v>12.38842423181529</v>
+        <v>12.43606872121136</v>
       </c>
       <c r="N12" t="n">
-        <v>248.8896158734503</v>
+        <v>249.4085587579198</v>
       </c>
       <c r="O12" t="n">
-        <v>15.77623579544405</v>
+        <v>15.79267421173247</v>
       </c>
       <c r="P12" t="n">
-        <v>377.3941918028636</v>
+        <v>377.0915327336268</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36130,28 +36605,28 @@
         <v>0.0443</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4888637976699133</v>
+        <v>-0.46548177372373</v>
       </c>
       <c r="J13" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K13" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02406031539380282</v>
+        <v>0.02223901209300783</v>
       </c>
       <c r="M13" t="n">
-        <v>17.50980647189147</v>
+        <v>17.51304058978975</v>
       </c>
       <c r="N13" t="n">
-        <v>522.2303051361571</v>
+        <v>519.8326512453436</v>
       </c>
       <c r="O13" t="n">
-        <v>22.85235885277835</v>
+        <v>22.79983884253009</v>
       </c>
       <c r="P13" t="n">
-        <v>374.1890965249635</v>
+        <v>373.9547970837127</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36208,28 +36683,28 @@
         <v>0.0475</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4410575156608036</v>
+        <v>-0.4258442803226097</v>
       </c>
       <c r="J14" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K14" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01797556251423238</v>
+        <v>0.01717379585319134</v>
       </c>
       <c r="M14" t="n">
-        <v>18.79018389960088</v>
+        <v>18.73211798204701</v>
       </c>
       <c r="N14" t="n">
-        <v>581.9037233831542</v>
+        <v>577.2398412840456</v>
       </c>
       <c r="O14" t="n">
-        <v>24.12268068401923</v>
+        <v>24.02581614189299</v>
       </c>
       <c r="P14" t="n">
-        <v>369.5741505778685</v>
+        <v>369.4240272040039</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36286,28 +36761,28 @@
         <v>0.0616</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1656655107569627</v>
+        <v>-0.1596100264401135</v>
       </c>
       <c r="J15" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K15" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001902984942179997</v>
+        <v>0.001808784749606662</v>
       </c>
       <c r="M15" t="n">
-        <v>22.27170333802759</v>
+        <v>22.16962047048866</v>
       </c>
       <c r="N15" t="n">
-        <v>783.4685382625565</v>
+        <v>776.5834252893169</v>
       </c>
       <c r="O15" t="n">
-        <v>27.99050800293836</v>
+        <v>27.86724646048326</v>
       </c>
       <c r="P15" t="n">
-        <v>366.1615308316611</v>
+        <v>366.1024272248948</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36364,28 +36839,28 @@
         <v>0.0333</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1902965185778869</v>
+        <v>-0.03044598388868798</v>
       </c>
       <c r="J16" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K16" t="n">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002102478183357515</v>
+        <v>4.901523928246831e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>24.01028023302892</v>
+        <v>24.57544544741425</v>
       </c>
       <c r="N16" t="n">
-        <v>951.6035283154764</v>
+        <v>1063.577077203733</v>
       </c>
       <c r="O16" t="n">
-        <v>30.84807171146158</v>
+        <v>32.61252945117464</v>
       </c>
       <c r="P16" t="n">
-        <v>363.1801439997768</v>
+        <v>361.6209621159572</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36442,28 +36917,28 @@
         <v>0.0398</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4493286816214476</v>
+        <v>0.5571976366881308</v>
       </c>
       <c r="J17" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K17" t="n">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01370603591717223</v>
+        <v>0.0195130876107793</v>
       </c>
       <c r="M17" t="n">
-        <v>23.10202138933618</v>
+        <v>23.34366979250815</v>
       </c>
       <c r="N17" t="n">
-        <v>820.0970750591179</v>
+        <v>892.3160334851907</v>
       </c>
       <c r="O17" t="n">
-        <v>28.63733708044653</v>
+        <v>29.8716593694624</v>
       </c>
       <c r="P17" t="n">
-        <v>345.882557967665</v>
+        <v>344.834731407271</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -36520,28 +36995,28 @@
         <v>0.0516</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07596207863767522</v>
+        <v>0.2168810104197227</v>
       </c>
       <c r="J18" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K18" t="n">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005057070631812044</v>
+        <v>0.003720544973903173</v>
       </c>
       <c r="M18" t="n">
-        <v>20.22970782485744</v>
+        <v>20.73694983589034</v>
       </c>
       <c r="N18" t="n">
-        <v>653.1745043063221</v>
+        <v>734.7567076114594</v>
       </c>
       <c r="O18" t="n">
-        <v>25.55727889088199</v>
+        <v>27.10639606460917</v>
       </c>
       <c r="P18" t="n">
-        <v>335.3238028574848</v>
+        <v>333.9838822851082</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -36579,7 +37054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S546"/>
+  <dimension ref="A1:S553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78493,6 +78968,593 @@
         </is>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:26+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-41.77425844449642,171.45586617589396</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-41.77429323946888,171.4567714985302</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-41.77394404915174,171.4574535867678</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>-41.773473115400215,171.4580612401873</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>-41.77298321401819,171.45866092122375</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>-41.7724807113111,171.4591848839259</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>-41.77183702575703,171.45940355919527</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>-41.77118848839617,171.45964381045704</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>-41.77051572473058,171.45968059242625</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>-41.76983916236822,171.4596394323959</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>-41.76919012801727,171.45947982655943</t>
+        </is>
+      </c>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>-41.76862604773931,171.45927298928564</t>
+        </is>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>-41.768017661261894,171.45900700093378</t>
+        </is>
+      </c>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>-41.7673711285838,171.45877897098154</t>
+        </is>
+      </c>
+      <c r="P547" t="inlineStr">
+        <is>
+          <t>-41.76679412121547,171.45835206423644</t>
+        </is>
+      </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>-41.76617041756053,171.45802639755254</t>
+        </is>
+      </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>-41.7655827057191,171.45759496137245</t>
+        </is>
+      </c>
+      <c r="S547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>-41.77413400322183,171.4558640109394</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>-41.77420655525763,171.45674771652628</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>-41.77391871645162,171.45742963002388</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>-41.77342675734899,171.45799653059953</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>-41.772935503521545,171.4585823518616</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>-41.77246334207022,171.45913069796163</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>-41.771858535421536,171.4595330266878</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>-41.771185948159314,171.4596233053881</t>
+        </is>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>-41.77051600457478,171.45968412128602</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>-41.76983597804466,171.4595976670939</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>-41.76919161846117,171.4594200759992</t>
+        </is>
+      </c>
+      <c r="M548" t="inlineStr">
+        <is>
+          <t>-41.768625195686326,171.45927704261098</t>
+        </is>
+      </c>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>-41.76801211876991,171.45902593338886</t>
+        </is>
+      </c>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>-41.76740318114936,171.45867927769302</t>
+        </is>
+      </c>
+      <c r="P548" t="inlineStr">
+        <is>
+          <t>-41.76682934854789,171.45825773987315</t>
+        </is>
+      </c>
+      <c r="Q548" t="inlineStr">
+        <is>
+          <t>-41.76623007421348,171.4578758655855</t>
+        </is>
+      </c>
+      <c r="R548" t="inlineStr">
+        <is>
+          <t>-41.765616409863824,171.45750991573942</t>
+        </is>
+      </c>
+      <c r="S548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-41.7741559740404,171.4558643931744</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>-41.774193656103726,171.45674417762035</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>-41.773900856160175,171.4574127398356</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>-41.77344587200712,171.45802321206727</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>-41.772909464120275,171.45853947041604</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>-41.77244799331196,171.45908281528747</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>-41.77184302428414,171.4594396644625</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>-41.77119803344659,171.45972085942282</t>
+        </is>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>-41.77052464174725,171.45979303746574</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>-41.769845394109566,171.4597211679429</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>-41.76919258408426,171.45938136436763</t>
+        </is>
+      </c>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>-41.76862064328646,171.4592986989475</t>
+        </is>
+      </c>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>-41.768019989763495,171.45899904706116</t>
+        </is>
+      </c>
+      <c r="O549" t="inlineStr">
+        <is>
+          <t>-41.76740030281838,171.45868823019853</t>
+        </is>
+      </c>
+      <c r="P549" t="inlineStr">
+        <is>
+          <t>-41.76681367112181,171.45829971763578</t>
+        </is>
+      </c>
+      <c r="Q549" t="inlineStr">
+        <is>
+          <t>-41.76620155195482,171.45794783605882</t>
+        </is>
+      </c>
+      <c r="R549" t="inlineStr">
+        <is>
+          <t>-41.76560924773848,171.4575279879438</t>
+        </is>
+      </c>
+      <c r="S549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:04+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr"/>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr"/>
+      <c r="H550" t="inlineStr"/>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>-41.771151044446796,171.4593415619598</t>
+        </is>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>-41.7705000485393,171.45948291652277</t>
+        </is>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>-41.76984938129875,171.45977346434162</t>
+        </is>
+      </c>
+      <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr"/>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>-41.7679476419726,171.45924617698182</t>
+        </is>
+      </c>
+      <c r="O550" t="inlineStr"/>
+      <c r="P550" t="inlineStr"/>
+      <c r="Q550" t="inlineStr"/>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>-41.76537209548003,171.45812638828596</t>
+        </is>
+      </c>
+      <c r="S550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:10+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>-41.77416065634598,171.45586447463432</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>-41.77422682341769,171.456753277135</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>-41.773942848666046,171.45745245148646</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>-41.773443014840005,171.45801922384834</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>-41.77294194650827,171.45859296212194</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>-41.772521035198245,171.45931068078553</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>-41.77186483957721,171.45957097182378</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>-41.77052991127315,171.45985948771536</t>
+        </is>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>-41.76985515023336,171.45984913086653</t>
+        </is>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>-41.76918844389391,171.4595473400531</t>
+        </is>
+      </c>
+      <c r="M551" t="inlineStr">
+        <is>
+          <t>-41.768569798019804,171.45954057471337</t>
+        </is>
+      </c>
+      <c r="N551" t="inlineStr">
+        <is>
+          <t>-41.76792625893153,171.45931921799695</t>
+        </is>
+      </c>
+      <c r="O551" t="inlineStr">
+        <is>
+          <t>-41.767356772417116,171.4588236229329</t>
+        </is>
+      </c>
+      <c r="P551" t="inlineStr">
+        <is>
+          <t>-41.76680640858235,171.45831916373783</t>
+        </is>
+      </c>
+      <c r="Q551" t="inlineStr">
+        <is>
+          <t>-41.76613719463933,171.45811022879525</t>
+        </is>
+      </c>
+      <c r="R551" t="inlineStr">
+        <is>
+          <t>-41.76553716289078,171.4577098791448</t>
+        </is>
+      </c>
+      <c r="S551" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:13:08+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>-41.774217294234404,171.4558654599863</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>-41.77429938709259,171.4567731851466</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>-41.77398427766567,171.4574916303009</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>-41.773497570797296,171.4580953766811</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>-41.772996902309714,171.4586834630583</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>-41.77259776819885,171.45955006334935</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>-41.77188716416618,171.4597053456863</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>-41.770548925832834,171.4600992709393</t>
+        </is>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>-41.769877593341235,171.46014350558994</t>
+        </is>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>-41.76918294740294,171.45976767344064</t>
+        </is>
+      </c>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>-41.76852664173825,171.45974587103055</t>
+        </is>
+      </c>
+      <c r="N552" t="inlineStr">
+        <is>
+          <t>-41.76787335865868,171.4594999158877</t>
+        </is>
+      </c>
+      <c r="O552" t="inlineStr">
+        <is>
+          <t>-41.76723033788646,171.4592168687323</t>
+        </is>
+      </c>
+      <c r="P552" t="inlineStr"/>
+      <c r="Q552" t="inlineStr"/>
+      <c r="R552" t="inlineStr"/>
+      <c r="S552" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:19:17+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr"/>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>-41.77428568725561,171.4567694265614</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>-41.773978740733284,171.45748639409928</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>-41.77351055602113,171.45811350234902</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>-41.77301838700253,171.45871884401515</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>-41.77245887568993,171.4591167644328</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>-41.771871449388705,171.45961075681134</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>-41.771173589977685,171.45952354924137</t>
+        </is>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>-41.770514999032365,171.45967144131552</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr"/>
+      <c r="N553" t="inlineStr"/>
+      <c r="O553" t="inlineStr"/>
+      <c r="P553" t="inlineStr">
+        <is>
+          <t>-41.767544812014926,171.45634195385514</t>
+        </is>
+      </c>
+      <c r="Q553" t="inlineStr">
+        <is>
+          <t>-41.766872255140775,171.45625539707711</t>
+        </is>
+      </c>
+      <c r="R553" t="inlineStr">
+        <is>
+          <t>-41.76616809538946,171.4561178125684</t>
+        </is>
+      </c>
+      <c r="S553" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S553"/>
+  <dimension ref="A1:S555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29559,9 +29559,7 @@
       <c r="O550" t="inlineStr"/>
       <c r="P550" t="inlineStr"/>
       <c r="Q550" t="inlineStr"/>
-      <c r="R550" t="n">
-        <v>313.84</v>
-      </c>
+      <c r="R550" t="inlineStr"/>
       <c r="S550" t="inlineStr">
         <is>
           <t>L8</t>
@@ -29720,16 +29718,124 @@
       <c r="M553" t="inlineStr"/>
       <c r="N553" t="inlineStr"/>
       <c r="O553" t="inlineStr"/>
-      <c r="P553" t="n">
-        <v>560.01</v>
-      </c>
-      <c r="Q553" t="n">
-        <v>530.2985714285714</v>
-      </c>
-      <c r="R553" t="n">
-        <v>502.78</v>
-      </c>
+      <c r="P553" t="inlineStr"/>
+      <c r="Q553" t="inlineStr"/>
+      <c r="R553" t="inlineStr"/>
       <c r="S553" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:48+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>358.28</v>
+      </c>
+      <c r="C554" t="n">
+        <v>359.39</v>
+      </c>
+      <c r="D554" t="n">
+        <v>363.53</v>
+      </c>
+      <c r="E554" t="n">
+        <v>364.3333333333333</v>
+      </c>
+      <c r="F554" t="n">
+        <v>377.8671428571428</v>
+      </c>
+      <c r="G554" t="n">
+        <v>381.1571428571429</v>
+      </c>
+      <c r="H554" t="n">
+        <v>355.8333333333333</v>
+      </c>
+      <c r="I554" t="n">
+        <v>358.1166666666667</v>
+      </c>
+      <c r="J554" t="n">
+        <v>325.365</v>
+      </c>
+      <c r="K554" t="n">
+        <v>336.8985714285715</v>
+      </c>
+      <c r="L554" t="n">
+        <v>382.9571428571429</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr"/>
+      <c r="P554" t="n">
+        <v>404.76</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>384.7271428571429</v>
+      </c>
+      <c r="R554" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="S554" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="C555" t="n">
+        <v>359.2461538461538</v>
+      </c>
+      <c r="D555" t="n">
+        <v>361.5466666666667</v>
+      </c>
+      <c r="E555" t="n">
+        <v>361.4455555555555</v>
+      </c>
+      <c r="F555" t="n">
+        <v>376.7928571428571</v>
+      </c>
+      <c r="G555" t="n">
+        <v>354.4528571428572</v>
+      </c>
+      <c r="H555" t="n">
+        <v>330.0555555555555</v>
+      </c>
+      <c r="I555" t="n">
+        <v>319.0077777777778</v>
+      </c>
+      <c r="J555" t="n">
+        <v>314.545</v>
+      </c>
+      <c r="K555" t="n">
+        <v>321.7514285714286</v>
+      </c>
+      <c r="L555" t="inlineStr"/>
+      <c r="M555" t="n">
+        <v>339.7128571428572</v>
+      </c>
+      <c r="N555" t="n">
+        <v>343.81</v>
+      </c>
+      <c r="O555" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="P555" t="inlineStr"/>
+      <c r="Q555" t="inlineStr"/>
+      <c r="R555" t="n">
+        <v>317.99</v>
+      </c>
+      <c r="S555" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -29746,7 +29852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B582"/>
+  <dimension ref="A1:B584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35574,6 +35680,26 @@
       </c>
       <c r="B582" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -35747,28 +35873,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1850925957748051</v>
+        <v>-0.1795221113989004</v>
       </c>
       <c r="J2" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K2" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01121057176595353</v>
+        <v>0.01063931440334875</v>
       </c>
       <c r="M2" t="n">
-        <v>10.43751690101116</v>
+        <v>10.42953792720486</v>
       </c>
       <c r="N2" t="n">
-        <v>174.6935021789555</v>
+        <v>174.2751441519987</v>
       </c>
       <c r="O2" t="n">
-        <v>13.21716694980265</v>
+        <v>13.20133115075896</v>
       </c>
       <c r="P2" t="n">
-        <v>366.8042662993947</v>
+        <v>366.7506653269085</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35825,28 +35951,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4231854011113473</v>
+        <v>-0.414532130428282</v>
       </c>
       <c r="J3" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K3" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08165410925142491</v>
+        <v>0.07899423863328203</v>
       </c>
       <c r="M3" t="n">
-        <v>8.25612099843182</v>
+        <v>8.262190943441501</v>
       </c>
       <c r="N3" t="n">
-        <v>115.1849697636349</v>
+        <v>115.0975611568655</v>
       </c>
       <c r="O3" t="n">
-        <v>10.73242608936278</v>
+        <v>10.72835314281113</v>
       </c>
       <c r="P3" t="n">
-        <v>360.297191401136</v>
+        <v>360.2130534557776</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35903,28 +36029,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5813285191972671</v>
+        <v>-0.5740008184685262</v>
       </c>
       <c r="J4" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K4" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1620781716440216</v>
+        <v>0.159451419234324</v>
       </c>
       <c r="M4" t="n">
-        <v>7.671425273918952</v>
+        <v>7.67525181811328</v>
       </c>
       <c r="N4" t="n">
-        <v>98.62040422612861</v>
+        <v>98.49107612358127</v>
       </c>
       <c r="O4" t="n">
-        <v>9.930780645353547</v>
+        <v>9.924267032057394</v>
       </c>
       <c r="P4" t="n">
-        <v>369.0678620593474</v>
+        <v>368.9960970146885</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35981,28 +36107,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.591008288816436</v>
+        <v>-0.5807061718846206</v>
       </c>
       <c r="J5" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K5" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1406772641981625</v>
+        <v>0.136907521155726</v>
       </c>
       <c r="M5" t="n">
-        <v>8.502199092522735</v>
+        <v>8.517180204021951</v>
       </c>
       <c r="N5" t="n">
-        <v>120.979749829045</v>
+        <v>121.0829243333976</v>
       </c>
       <c r="O5" t="n">
-        <v>10.99907949916924</v>
+        <v>11.00376864230604</v>
       </c>
       <c r="P5" t="n">
-        <v>366.1328961533972</v>
+        <v>366.0320879505326</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36059,28 +36185,28 @@
         <v>0.0367</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.797363106669129</v>
+        <v>-0.7745547965300361</v>
       </c>
       <c r="J6" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K6" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1383971473314003</v>
+        <v>0.1311322853095597</v>
       </c>
       <c r="M6" t="n">
-        <v>11.4927182055753</v>
+        <v>11.55685393484889</v>
       </c>
       <c r="N6" t="n">
-        <v>219.8012092772196</v>
+        <v>221.7969897521307</v>
       </c>
       <c r="O6" t="n">
-        <v>14.82569422581012</v>
+        <v>14.89285028972395</v>
       </c>
       <c r="P6" t="n">
-        <v>372.3498035735006</v>
+        <v>372.1241471782992</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36137,28 +36263,28 @@
         <v>0.0428</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9641973195358137</v>
+        <v>-0.9365047978335098</v>
       </c>
       <c r="J7" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K7" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1211379077208903</v>
+        <v>0.1147566521440792</v>
       </c>
       <c r="M7" t="n">
-        <v>15.13033505975732</v>
+        <v>15.19197520536367</v>
       </c>
       <c r="N7" t="n">
-        <v>359.1017261227632</v>
+        <v>362.1169775457017</v>
       </c>
       <c r="O7" t="n">
-        <v>18.94997958106455</v>
+        <v>19.02937144378925</v>
       </c>
       <c r="P7" t="n">
-        <v>364.5690250481297</v>
+        <v>364.2874125057374</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36215,28 +36341,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6533741322405706</v>
+        <v>-0.6453683093621307</v>
       </c>
       <c r="J8" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K8" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09702569737484723</v>
+        <v>0.09522023658217382</v>
       </c>
       <c r="M8" t="n">
-        <v>11.72486820020883</v>
+        <v>11.73178969016854</v>
       </c>
       <c r="N8" t="n">
-        <v>221.0022362209005</v>
+        <v>221.1418764716757</v>
       </c>
       <c r="O8" t="n">
-        <v>14.8661439593763</v>
+        <v>14.87083980384685</v>
       </c>
       <c r="P8" t="n">
-        <v>350.4259633715087</v>
+        <v>350.3467792589236</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36293,28 +36419,28 @@
         <v>0.1025</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6342686620670973</v>
+        <v>-0.628758502441823</v>
       </c>
       <c r="J9" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K9" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07817667230488456</v>
+        <v>0.0770526998771377</v>
       </c>
       <c r="M9" t="n">
-        <v>12.50477616165406</v>
+        <v>12.54017479186756</v>
       </c>
       <c r="N9" t="n">
-        <v>263.3955049560393</v>
+        <v>264.1241281815783</v>
       </c>
       <c r="O9" t="n">
-        <v>16.22946409947166</v>
+        <v>16.25189614111468</v>
       </c>
       <c r="P9" t="n">
-        <v>348.4006678476354</v>
+        <v>348.3462965159758</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36371,28 +36497,28 @@
         <v>0.0882</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5654527982271902</v>
+        <v>-0.574666863585114</v>
       </c>
       <c r="J10" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K10" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07147868805084234</v>
+        <v>0.07409818953504954</v>
       </c>
       <c r="M10" t="n">
-        <v>11.84586502865405</v>
+        <v>11.83972375813886</v>
       </c>
       <c r="N10" t="n">
-        <v>229.6606984956121</v>
+        <v>229.2227589528088</v>
       </c>
       <c r="O10" t="n">
-        <v>15.15456032010207</v>
+        <v>15.14010432437005</v>
       </c>
       <c r="P10" t="n">
-        <v>344.9332313813339</v>
+        <v>345.0251515899289</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36449,28 +36575,28 @@
         <v>0.0775</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5726830746390771</v>
+        <v>-0.58095178009936</v>
       </c>
       <c r="J11" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K11" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07121309957949407</v>
+        <v>0.07357458087771485</v>
       </c>
       <c r="M11" t="n">
-        <v>12.04850801328822</v>
+        <v>12.03673225637393</v>
       </c>
       <c r="N11" t="n">
-        <v>238.2881303804591</v>
+        <v>237.8283149023247</v>
       </c>
       <c r="O11" t="n">
-        <v>15.43658415519635</v>
+        <v>15.42168327071739</v>
       </c>
       <c r="P11" t="n">
-        <v>353.3359231606476</v>
+        <v>353.4181741362448</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36527,28 +36653,28 @@
         <v>0.0377</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5319863098788747</v>
+        <v>-0.5228108191759804</v>
       </c>
       <c r="J12" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K12" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05875102510295283</v>
+        <v>0.05690998036488393</v>
       </c>
       <c r="M12" t="n">
-        <v>12.43606872121136</v>
+        <v>12.45433719144724</v>
       </c>
       <c r="N12" t="n">
-        <v>249.4085587579198</v>
+        <v>249.7351835454452</v>
       </c>
       <c r="O12" t="n">
-        <v>15.79267421173247</v>
+        <v>15.80301185044943</v>
       </c>
       <c r="P12" t="n">
-        <v>377.0915327336268</v>
+        <v>376.9992255182792</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36605,28 +36731,28 @@
         <v>0.0443</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.46548177372373</v>
+        <v>-0.4768732859262722</v>
       </c>
       <c r="J13" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K13" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02223901209300783</v>
+        <v>0.02337745393443302</v>
       </c>
       <c r="M13" t="n">
-        <v>17.51304058978975</v>
+        <v>17.5185892460908</v>
       </c>
       <c r="N13" t="n">
-        <v>519.8326512453436</v>
+        <v>519.7548512541329</v>
       </c>
       <c r="O13" t="n">
-        <v>22.79983884253009</v>
+        <v>22.79813262647037</v>
       </c>
       <c r="P13" t="n">
-        <v>373.9547970837127</v>
+        <v>374.0703395047581</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36683,28 +36809,28 @@
         <v>0.0475</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4258442803226097</v>
+        <v>-0.4334560004122482</v>
       </c>
       <c r="J14" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K14" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01717379585319134</v>
+        <v>0.01785875076725474</v>
       </c>
       <c r="M14" t="n">
-        <v>18.73211798204701</v>
+        <v>18.72050858514752</v>
       </c>
       <c r="N14" t="n">
-        <v>577.2398412840456</v>
+        <v>576.2188033788019</v>
       </c>
       <c r="O14" t="n">
-        <v>24.02581614189299</v>
+        <v>24.00455797091048</v>
       </c>
       <c r="P14" t="n">
-        <v>369.4240272040039</v>
+        <v>369.5003034582919</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36761,28 +36887,28 @@
         <v>0.0616</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1596100264401135</v>
+        <v>-0.1654719452988609</v>
       </c>
       <c r="J15" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K15" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001808784749606662</v>
+        <v>0.001954578395663154</v>
       </c>
       <c r="M15" t="n">
-        <v>22.16962047048866</v>
+        <v>22.12872708520077</v>
       </c>
       <c r="N15" t="n">
-        <v>776.5834252893169</v>
+        <v>774.584721934916</v>
       </c>
       <c r="O15" t="n">
-        <v>27.86724646048326</v>
+        <v>27.83136220049094</v>
       </c>
       <c r="P15" t="n">
-        <v>366.1024272248948</v>
+        <v>366.1610247717624</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -36839,28 +36965,28 @@
         <v>0.0333</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03044598388868798</v>
+        <v>-0.1198939384503328</v>
       </c>
       <c r="J16" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K16" t="n">
         <v>328</v>
       </c>
       <c r="L16" t="n">
-        <v>4.901523928246831e-05</v>
+        <v>0.0008522186536933374</v>
       </c>
       <c r="M16" t="n">
-        <v>24.57544544741425</v>
+        <v>24.04501719459518</v>
       </c>
       <c r="N16" t="n">
-        <v>1063.577077203733</v>
+        <v>947.8418347152458</v>
       </c>
       <c r="O16" t="n">
-        <v>32.61252945117464</v>
+        <v>30.78704004472086</v>
       </c>
       <c r="P16" t="n">
-        <v>361.6209621159572</v>
+        <v>362.4947155992536</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -36917,28 +37043,28 @@
         <v>0.0398</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5571976366881308</v>
+        <v>0.4829319985831534</v>
       </c>
       <c r="J17" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K17" t="n">
         <v>361</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0195130876107793</v>
+        <v>0.01615315496623115</v>
       </c>
       <c r="M17" t="n">
-        <v>23.34366979250815</v>
+        <v>22.96091963863874</v>
       </c>
       <c r="N17" t="n">
-        <v>892.3160334851907</v>
+        <v>812.5080533825991</v>
       </c>
       <c r="O17" t="n">
-        <v>29.8716593694624</v>
+        <v>28.50452689280422</v>
       </c>
       <c r="P17" t="n">
-        <v>344.834731407271</v>
+        <v>345.5569490706753</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -36995,28 +37121,28 @@
         <v>0.0516</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2168810104197227</v>
+        <v>0.1070702811289664</v>
       </c>
       <c r="J18" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K18" t="n">
         <v>327</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003720544973903173</v>
+        <v>0.001019192826261062</v>
       </c>
       <c r="M18" t="n">
-        <v>20.73694983589034</v>
+        <v>20.34760197643584</v>
       </c>
       <c r="N18" t="n">
-        <v>734.7567076114594</v>
+        <v>655.6025631741113</v>
       </c>
       <c r="O18" t="n">
-        <v>27.10639606460917</v>
+        <v>25.60473712370645</v>
       </c>
       <c r="P18" t="n">
-        <v>333.9838822851082</v>
+        <v>335.0313210526658</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -37054,7 +37180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S553"/>
+  <dimension ref="A1:S555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79297,11 +79423,7 @@
       <c r="O550" t="inlineStr"/>
       <c r="P550" t="inlineStr"/>
       <c r="Q550" t="inlineStr"/>
-      <c r="R550" t="inlineStr">
-        <is>
-          <t>-41.76537209548003,171.45812638828596</t>
-        </is>
-      </c>
+      <c r="R550" t="inlineStr"/>
       <c r="S550" t="inlineStr">
         <is>
           <t>L8</t>
@@ -79534,22 +79656,180 @@
       <c r="M553" t="inlineStr"/>
       <c r="N553" t="inlineStr"/>
       <c r="O553" t="inlineStr"/>
-      <c r="P553" t="inlineStr">
-        <is>
-          <t>-41.767544812014926,171.45634195385514</t>
-        </is>
-      </c>
-      <c r="Q553" t="inlineStr">
-        <is>
-          <t>-41.766872255140775,171.45625539707711</t>
-        </is>
-      </c>
-      <c r="R553" t="inlineStr">
-        <is>
-          <t>-41.76616809538946,171.4561178125684</t>
-        </is>
-      </c>
+      <c r="P553" t="inlineStr"/>
+      <c r="Q553" t="inlineStr"/>
+      <c r="R553" t="inlineStr"/>
       <c r="S553" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:48+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>-41.77420108625366,171.45586517800956</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>-41.774175450722176,171.45673918294375</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-41.773907740580064,171.4574192503186</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>-41.77342965602538,171.45800057675666</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>-41.7728720299211,171.45847782422845</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>-41.772380577039144,171.4588725014624</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>-41.771825085034266,171.45933168794343</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>-41.77116916943606,171.4594878664842</t>
+        </is>
+      </c>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>-41.77053836804705,171.4599661311204</t>
+        </is>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>-41.7698596874017,171.45990864176122</t>
+        </is>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>-41.76919124317556,171.45943512098088</t>
+        </is>
+      </c>
+      <c r="M554" t="inlineStr"/>
+      <c r="N554" t="inlineStr"/>
+      <c r="O554" t="inlineStr"/>
+      <c r="P554" t="inlineStr">
+        <is>
+          <t>-41.766920746288754,171.45801301270464</t>
+        </is>
+      </c>
+      <c r="Q554" t="inlineStr">
+        <is>
+          <t>-41.76625896957959,171.4578029534635</t>
+        </is>
+      </c>
+      <c r="R554" t="inlineStr">
+        <is>
+          <t>-41.765328532254834,171.45823630892855</t>
+        </is>
+      </c>
+      <c r="S554" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>-41.774041617729814,171.45586240367282</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>-41.77417671960268,171.4567395310631</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>-41.77392231790929,171.45743303586542</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>-41.773447636117524,171.4580256745271</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>-41.77287812442812,171.45848786058056</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>-41.77247523721778,171.45916780665522</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>-41.77187537971619,171.45963441381195</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>-41.77122666828992,171.45995200646627</t>
+        </is>
+      </c>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>-41.770548631772606,171.4600955626418</t>
+        </is>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>-41.76987350726307,171.46008990984976</t>
+        </is>
+      </c>
+      <c r="L555" t="inlineStr"/>
+      <c r="M555" t="inlineStr">
+        <is>
+          <t>-41.7685176271791,171.4597887534255</t>
+        </is>
+      </c>
+      <c r="N555" t="inlineStr">
+        <is>
+          <t>-41.7679023833328,171.45940077293952</t>
+        </is>
+      </c>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>-41.767307769427504,171.4589760362538</t>
+        </is>
+      </c>
+      <c r="P555" t="inlineStr"/>
+      <c r="Q555" t="inlineStr"/>
+      <c r="R555" t="inlineStr">
+        <is>
+          <t>-41.765389579722815,171.45808227115901</t>
+        </is>
+      </c>
+      <c r="S555" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S555"/>
+  <dimension ref="A1:S556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29841,6 +29841,49 @@
         </is>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>357.19</v>
+      </c>
+      <c r="C556" t="n">
+        <v>348.6030769230769</v>
+      </c>
+      <c r="D556" t="n">
+        <v>349.3533333333333</v>
+      </c>
+      <c r="E556" t="n">
+        <v>349.5144444444445</v>
+      </c>
+      <c r="F556" t="n">
+        <v>348.17</v>
+      </c>
+      <c r="G556" t="n">
+        <v>346.75</v>
+      </c>
+      <c r="H556" t="n">
+        <v>327.5744444444445</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr"/>
+      <c r="N556" t="inlineStr"/>
+      <c r="O556" t="inlineStr"/>
+      <c r="P556" t="inlineStr"/>
+      <c r="Q556" t="inlineStr"/>
+      <c r="R556" t="inlineStr"/>
+      <c r="S556" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29852,7 +29895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B584"/>
+  <dimension ref="A1:B585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35700,6 +35743,16 @@
       </c>
       <c r="B584" t="n">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -35873,28 +35926,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1795221113989004</v>
+        <v>-0.1821954449851368</v>
       </c>
       <c r="J2" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01063931440334875</v>
+        <v>0.01101404281145812</v>
       </c>
       <c r="M2" t="n">
-        <v>10.42953792720486</v>
+        <v>10.41245056627697</v>
       </c>
       <c r="N2" t="n">
-        <v>174.2751441519987</v>
+        <v>173.8322170904808</v>
       </c>
       <c r="O2" t="n">
-        <v>13.20133115075896</v>
+        <v>13.18454462962149</v>
       </c>
       <c r="P2" t="n">
-        <v>366.7506653269085</v>
+        <v>366.7763820608425</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35951,28 +36004,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.414532130428282</v>
+        <v>-0.4149350938262988</v>
       </c>
       <c r="J3" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K3" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07899423863328203</v>
+        <v>0.07947299848025069</v>
       </c>
       <c r="M3" t="n">
-        <v>8.262190943441501</v>
+        <v>8.244808760429713</v>
       </c>
       <c r="N3" t="n">
-        <v>115.0975611568655</v>
+        <v>114.8268299298353</v>
       </c>
       <c r="O3" t="n">
-        <v>10.72835314281113</v>
+        <v>10.71572815677196</v>
       </c>
       <c r="P3" t="n">
-        <v>360.2130534557776</v>
+        <v>360.2169823518852</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36029,28 +36082,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5740008184685262</v>
+        <v>-0.5761050504075217</v>
       </c>
       <c r="J4" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K4" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L4" t="n">
-        <v>0.159451419234324</v>
+        <v>0.1609828704445792</v>
       </c>
       <c r="M4" t="n">
-        <v>7.67525181811328</v>
+        <v>7.668480859434162</v>
       </c>
       <c r="N4" t="n">
-        <v>98.49107612358127</v>
+        <v>98.31587305914368</v>
       </c>
       <c r="O4" t="n">
-        <v>9.924267032057394</v>
+        <v>9.915436100300566</v>
       </c>
       <c r="P4" t="n">
-        <v>368.9960970146885</v>
+        <v>369.0167646237213</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36107,28 +36160,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5807061718846206</v>
+        <v>-0.5813721848347314</v>
       </c>
       <c r="J5" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K5" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L5" t="n">
-        <v>0.136907521155726</v>
+        <v>0.1377137517721037</v>
       </c>
       <c r="M5" t="n">
-        <v>8.517180204021951</v>
+        <v>8.501016753602087</v>
       </c>
       <c r="N5" t="n">
-        <v>121.0829243333976</v>
+        <v>120.8068768274539</v>
       </c>
       <c r="O5" t="n">
-        <v>11.00376864230604</v>
+        <v>10.99121816849497</v>
       </c>
       <c r="P5" t="n">
-        <v>366.0320879505326</v>
+        <v>366.0386240733801</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36185,28 +36238,28 @@
         <v>0.0367</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7745547965300361</v>
+        <v>-0.7763353365371045</v>
       </c>
       <c r="J6" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K6" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1311322853095597</v>
+        <v>0.1321795428697019</v>
       </c>
       <c r="M6" t="n">
-        <v>11.55685393484889</v>
+        <v>11.53891536003303</v>
       </c>
       <c r="N6" t="n">
-        <v>221.7969897521307</v>
+        <v>221.3099896342197</v>
       </c>
       <c r="O6" t="n">
-        <v>14.89285028972395</v>
+        <v>14.87649117346627</v>
       </c>
       <c r="P6" t="n">
-        <v>372.1241471782992</v>
+        <v>372.1418100685947</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36263,28 +36316,28 @@
         <v>0.0428</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9365047978335098</v>
+        <v>-0.9332482935156593</v>
       </c>
       <c r="J7" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K7" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1147566521440792</v>
+        <v>0.1145433895987611</v>
       </c>
       <c r="M7" t="n">
-        <v>15.19197520536367</v>
+        <v>15.16978597891331</v>
       </c>
       <c r="N7" t="n">
-        <v>362.1169775457017</v>
+        <v>361.307699355922</v>
       </c>
       <c r="O7" t="n">
-        <v>19.02937144378925</v>
+        <v>19.00809562675656</v>
       </c>
       <c r="P7" t="n">
-        <v>364.2874125057374</v>
+        <v>364.2541877117474</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36341,28 +36394,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6453683093621307</v>
+        <v>-0.6480086760422877</v>
       </c>
       <c r="J8" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K8" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09522023658217382</v>
+        <v>0.09628677020149434</v>
       </c>
       <c r="M8" t="n">
-        <v>11.73178969016854</v>
+        <v>11.7183148799651</v>
       </c>
       <c r="N8" t="n">
-        <v>221.1418764716757</v>
+        <v>220.7204576151316</v>
       </c>
       <c r="O8" t="n">
-        <v>14.87083980384685</v>
+        <v>14.85666374443238</v>
       </c>
       <c r="P8" t="n">
-        <v>350.3467792589236</v>
+        <v>350.3730253783527</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36422,7 +36475,7 @@
         <v>-0.628758502441823</v>
       </c>
       <c r="J9" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K9" t="n">
         <v>438</v>
@@ -36500,7 +36553,7 @@
         <v>-0.574666863585114</v>
       </c>
       <c r="J10" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K10" t="n">
         <v>426</v>
@@ -36578,7 +36631,7 @@
         <v>-0.58095178009936</v>
       </c>
       <c r="J11" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K11" t="n">
         <v>419</v>
@@ -36656,7 +36709,7 @@
         <v>-0.5228108191759804</v>
       </c>
       <c r="J12" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K12" t="n">
         <v>396</v>
@@ -36734,7 +36787,7 @@
         <v>-0.4768732859262722</v>
       </c>
       <c r="J13" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K13" t="n">
         <v>368</v>
@@ -36812,7 +36865,7 @@
         <v>-0.4334560004122482</v>
       </c>
       <c r="J14" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K14" t="n">
         <v>357</v>
@@ -36890,7 +36943,7 @@
         <v>-0.1654719452988609</v>
       </c>
       <c r="J15" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K15" t="n">
         <v>335</v>
@@ -36968,7 +37021,7 @@
         <v>-0.1198939384503328</v>
       </c>
       <c r="J16" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K16" t="n">
         <v>328</v>
@@ -37046,7 +37099,7 @@
         <v>0.4829319985831534</v>
       </c>
       <c r="J17" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K17" t="n">
         <v>361</v>
@@ -37124,7 +37177,7 @@
         <v>0.1070702811289664</v>
       </c>
       <c r="J18" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K18" t="n">
         <v>327</v>
@@ -37180,7 +37233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S555"/>
+  <dimension ref="A1:S556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74063,7 +74116,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>-41.773255212289286,171.45910885023594</t>
+          <t>-41.77325521228928,171.45910885023594</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -79835,6 +79888,63 @@
         </is>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:19:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>-41.774210901086455,171.45586534876213</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>-41.77427060318531,171.45676528821005</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>-41.77401193782446,171.45751778815344</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>-41.77352192241351,171.45812936834992</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>-41.7730405038254,171.45875526600574</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>-41.77250254182867,171.45925298766855</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>-41.771880220537646,171.45966355120296</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr"/>
+      <c r="N556" t="inlineStr"/>
+      <c r="O556" t="inlineStr"/>
+      <c r="P556" t="inlineStr"/>
+      <c r="Q556" t="inlineStr"/>
+      <c r="R556" t="inlineStr"/>
+      <c r="S556" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S556"/>
+  <dimension ref="A1:S558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29820,7 +29820,9 @@
       <c r="K555" t="n">
         <v>321.7514285714286</v>
       </c>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="n">
+        <v>338.6128571428572</v>
+      </c>
       <c r="M555" t="n">
         <v>339.7128571428572</v>
       </c>
@@ -29830,8 +29832,12 @@
       <c r="O555" t="n">
         <v>351.6</v>
       </c>
-      <c r="P555" t="inlineStr"/>
-      <c r="Q555" t="inlineStr"/>
+      <c r="P555" t="n">
+        <v>347.8533333333333</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>331.6428571428572</v>
+      </c>
       <c r="R555" t="n">
         <v>317.99</v>
       </c>
@@ -29884,6 +29890,132 @@
         </is>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>376.47</v>
+      </c>
+      <c r="C557" t="n">
+        <v>369.11</v>
+      </c>
+      <c r="D557" t="n">
+        <v>372.1033333333333</v>
+      </c>
+      <c r="E557" t="n">
+        <v>375.7344444444445</v>
+      </c>
+      <c r="F557" t="n">
+        <v>381.2614285714286</v>
+      </c>
+      <c r="G557" t="n">
+        <v>377.4214285714286</v>
+      </c>
+      <c r="H557" t="n">
+        <v>338.3844444444445</v>
+      </c>
+      <c r="I557" t="n">
+        <v>347.6022222222222</v>
+      </c>
+      <c r="J557" t="n">
+        <v>333.605</v>
+      </c>
+      <c r="K557" t="n">
+        <v>342.1757142857143</v>
+      </c>
+      <c r="L557" t="n">
+        <v>368.4914285714286</v>
+      </c>
+      <c r="M557" t="n">
+        <v>365.1514285714285</v>
+      </c>
+      <c r="N557" t="n">
+        <v>372.6</v>
+      </c>
+      <c r="O557" t="n">
+        <v>371.39</v>
+      </c>
+      <c r="P557" t="n">
+        <v>376.7866666666667</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>355.9814285714286</v>
+      </c>
+      <c r="R557" t="n">
+        <v>350.13</v>
+      </c>
+      <c r="S557" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:27+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>386.55</v>
+      </c>
+      <c r="C558" t="n">
+        <v>377.6692307692308</v>
+      </c>
+      <c r="D558" t="n">
+        <v>373.46</v>
+      </c>
+      <c r="E558" t="n">
+        <v>374.42</v>
+      </c>
+      <c r="F558" t="n">
+        <v>382.0414285714286</v>
+      </c>
+      <c r="G558" t="n">
+        <v>345.4414285714286</v>
+      </c>
+      <c r="H558" t="n">
+        <v>342.6</v>
+      </c>
+      <c r="I558" t="n">
+        <v>331.76</v>
+      </c>
+      <c r="J558" t="n">
+        <v>336.675</v>
+      </c>
+      <c r="K558" t="n">
+        <v>338.9857142857143</v>
+      </c>
+      <c r="L558" t="n">
+        <v>372.2414285714286</v>
+      </c>
+      <c r="M558" t="n">
+        <v>362.3114285714286</v>
+      </c>
+      <c r="N558" t="n">
+        <v>373.86</v>
+      </c>
+      <c r="O558" t="n">
+        <v>366.37</v>
+      </c>
+      <c r="P558" t="n">
+        <v>380.35</v>
+      </c>
+      <c r="Q558" t="n">
+        <v>355.0214285714285</v>
+      </c>
+      <c r="R558" t="n">
+        <v>345.83</v>
+      </c>
+      <c r="S558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29895,7 +30027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B585"/>
+  <dimension ref="A1:B587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35753,6 +35885,26 @@
       </c>
       <c r="B585" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -35926,28 +36078,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1821954449851368</v>
+        <v>-0.1612599444865867</v>
       </c>
       <c r="J2" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K2" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01101404281145812</v>
+        <v>0.008634561618273806</v>
       </c>
       <c r="M2" t="n">
-        <v>10.41245056627697</v>
+        <v>10.47189687512238</v>
       </c>
       <c r="N2" t="n">
-        <v>173.8322170904808</v>
+        <v>175.1419510316987</v>
       </c>
       <c r="O2" t="n">
-        <v>13.18454462962149</v>
+        <v>13.23412071245003</v>
       </c>
       <c r="P2" t="n">
-        <v>366.7763820608425</v>
+        <v>366.5737749876166</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36004,28 +36156,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4149350938262988</v>
+        <v>-0.3941623375071811</v>
       </c>
       <c r="J3" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K3" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07947299848025069</v>
+        <v>0.07131504561408331</v>
       </c>
       <c r="M3" t="n">
-        <v>8.244808760429713</v>
+        <v>8.317736958335862</v>
       </c>
       <c r="N3" t="n">
-        <v>114.8268299298353</v>
+        <v>117.0317678970425</v>
       </c>
       <c r="O3" t="n">
-        <v>10.71572815677196</v>
+        <v>10.81812219828573</v>
       </c>
       <c r="P3" t="n">
-        <v>360.2169823518852</v>
+        <v>360.0132500619819</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36082,28 +36234,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5761050504075217</v>
+        <v>-0.5599448486039734</v>
       </c>
       <c r="J4" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K4" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1609828704445792</v>
+        <v>0.1525492344435333</v>
       </c>
       <c r="M4" t="n">
-        <v>7.668480859434162</v>
+        <v>7.719839767549082</v>
       </c>
       <c r="N4" t="n">
-        <v>98.31587305914368</v>
+        <v>99.45834787235317</v>
       </c>
       <c r="O4" t="n">
-        <v>9.915436100300566</v>
+        <v>9.972880620580653</v>
       </c>
       <c r="P4" t="n">
-        <v>369.0167646237213</v>
+        <v>368.857145290883</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36160,28 +36312,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5813721848347314</v>
+        <v>-0.5607297089113138</v>
       </c>
       <c r="J5" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K5" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1377137517721037</v>
+        <v>0.1279348941560431</v>
       </c>
       <c r="M5" t="n">
-        <v>8.501016753602087</v>
+        <v>8.574085773953854</v>
       </c>
       <c r="N5" t="n">
-        <v>120.8068768274539</v>
+        <v>122.8989444577957</v>
       </c>
       <c r="O5" t="n">
-        <v>10.99121816849497</v>
+        <v>11.08597963455624</v>
       </c>
       <c r="P5" t="n">
-        <v>366.0386240733801</v>
+        <v>365.8349024849148</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36238,28 +36390,28 @@
         <v>0.0367</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7763353365371045</v>
+        <v>-0.7500053282513318</v>
       </c>
       <c r="J6" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K6" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1321795428697019</v>
+        <v>0.1235110375278939</v>
       </c>
       <c r="M6" t="n">
-        <v>11.53891536003303</v>
+        <v>11.62268235325712</v>
       </c>
       <c r="N6" t="n">
-        <v>221.3099896342197</v>
+        <v>224.3357520601764</v>
       </c>
       <c r="O6" t="n">
-        <v>14.87649117346627</v>
+        <v>14.9778420361605</v>
       </c>
       <c r="P6" t="n">
-        <v>372.1418100685947</v>
+        <v>371.8791823912752</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36316,28 +36468,28 @@
         <v>0.0428</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9332482935156593</v>
+        <v>-0.9123405789100609</v>
       </c>
       <c r="J7" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K7" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1145433895987611</v>
+        <v>0.1100822549653402</v>
       </c>
       <c r="M7" t="n">
-        <v>15.16978597891331</v>
+        <v>15.19752466950304</v>
       </c>
       <c r="N7" t="n">
-        <v>361.307699355922</v>
+        <v>363.0347744448182</v>
       </c>
       <c r="O7" t="n">
-        <v>19.00809562675656</v>
+        <v>19.05347145390619</v>
       </c>
       <c r="P7" t="n">
-        <v>364.2541877117474</v>
+        <v>364.0399251009423</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36394,28 +36546,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6480086760422877</v>
+        <v>-0.6420925905329727</v>
       </c>
       <c r="J8" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K8" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09628677020149434</v>
+        <v>0.09539727901263662</v>
       </c>
       <c r="M8" t="n">
-        <v>11.7183148799651</v>
+        <v>11.69728034984668</v>
       </c>
       <c r="N8" t="n">
-        <v>220.7204576151316</v>
+        <v>219.9472086341682</v>
       </c>
       <c r="O8" t="n">
-        <v>14.85666374443238</v>
+        <v>14.83061727084103</v>
       </c>
       <c r="P8" t="n">
-        <v>350.3730253783527</v>
+        <v>350.3138720884055</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36472,28 +36624,28 @@
         <v>0.1025</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.628758502441823</v>
+        <v>-0.6222269010318994</v>
       </c>
       <c r="J9" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K9" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0770526998771377</v>
+        <v>0.07608056111220562</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54017479186756</v>
+        <v>12.52330374872943</v>
       </c>
       <c r="N9" t="n">
-        <v>264.1241281815783</v>
+        <v>263.4674982737196</v>
       </c>
       <c r="O9" t="n">
-        <v>16.25189614111468</v>
+        <v>16.23168192990855</v>
       </c>
       <c r="P9" t="n">
-        <v>348.3462965159758</v>
+        <v>348.281062459761</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36550,28 +36702,28 @@
         <v>0.0882</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.574666863585114</v>
+        <v>-0.5702573580688203</v>
       </c>
       <c r="J10" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K10" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07409818953504954</v>
+        <v>0.07364946806581218</v>
       </c>
       <c r="M10" t="n">
-        <v>11.83972375813886</v>
+        <v>11.8070552919678</v>
       </c>
       <c r="N10" t="n">
-        <v>229.2227589528088</v>
+        <v>228.2775844389452</v>
       </c>
       <c r="O10" t="n">
-        <v>15.14010432437005</v>
+        <v>15.10885781384368</v>
       </c>
       <c r="P10" t="n">
-        <v>345.0251515899289</v>
+        <v>344.9808272242224</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36628,28 +36780,28 @@
         <v>0.0775</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.58095178009936</v>
+        <v>-0.5789958059653937</v>
       </c>
       <c r="J11" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K11" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07357458087771485</v>
+        <v>0.07375001913451884</v>
       </c>
       <c r="M11" t="n">
-        <v>12.03673225637393</v>
+        <v>11.98952108569094</v>
       </c>
       <c r="N11" t="n">
-        <v>237.8283149023247</v>
+        <v>236.733077874739</v>
       </c>
       <c r="O11" t="n">
-        <v>15.42168327071739</v>
+        <v>15.3861326484188</v>
       </c>
       <c r="P11" t="n">
-        <v>353.4181741362448</v>
+        <v>353.3985997478424</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36706,28 +36858,28 @@
         <v>0.0377</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5228108191759804</v>
+        <v>-0.5278672049002502</v>
       </c>
       <c r="J12" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K12" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05690998036488393</v>
+        <v>0.05835646647892645</v>
       </c>
       <c r="M12" t="n">
-        <v>12.45433719144724</v>
+        <v>12.45767228560271</v>
       </c>
       <c r="N12" t="n">
-        <v>249.7351835454452</v>
+        <v>249.6682274800582</v>
       </c>
       <c r="O12" t="n">
-        <v>15.80301185044943</v>
+        <v>15.80089324943556</v>
       </c>
       <c r="P12" t="n">
-        <v>376.9992255182792</v>
+        <v>377.0498070008882</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36784,28 +36936,28 @@
         <v>0.0443</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4768732859262722</v>
+        <v>-0.4748304774471707</v>
       </c>
       <c r="J13" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K13" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02337745393443302</v>
+        <v>0.02342438838701144</v>
       </c>
       <c r="M13" t="n">
-        <v>17.5185892460908</v>
+        <v>17.43578650642798</v>
       </c>
       <c r="N13" t="n">
-        <v>519.7548512541329</v>
+        <v>516.9775013595621</v>
       </c>
       <c r="O13" t="n">
-        <v>22.79813262647037</v>
+        <v>22.73713925188396</v>
       </c>
       <c r="P13" t="n">
-        <v>374.0703395047581</v>
+        <v>374.0495019680802</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -36862,28 +37014,28 @@
         <v>0.0475</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4334560004122482</v>
+        <v>-0.417978151006267</v>
       </c>
       <c r="J14" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K14" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01785875076725474</v>
+        <v>0.01677086553583162</v>
       </c>
       <c r="M14" t="n">
-        <v>18.72050858514752</v>
+        <v>18.69841452695941</v>
       </c>
       <c r="N14" t="n">
-        <v>576.2188033788019</v>
+        <v>574.2357709045828</v>
       </c>
       <c r="O14" t="n">
-        <v>24.00455797091048</v>
+        <v>23.96321703996738</v>
       </c>
       <c r="P14" t="n">
-        <v>369.5003034582919</v>
+        <v>369.344169422363</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -36940,28 +37092,28 @@
         <v>0.0616</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1654719452988609</v>
+        <v>-0.15762222379827</v>
       </c>
       <c r="J15" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K15" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001954578395663154</v>
+        <v>0.001794408641261236</v>
       </c>
       <c r="M15" t="n">
-        <v>22.12872708520077</v>
+        <v>22.04579192718971</v>
       </c>
       <c r="N15" t="n">
-        <v>774.584721934916</v>
+        <v>770.3109043806593</v>
       </c>
       <c r="O15" t="n">
-        <v>27.83136220049094</v>
+        <v>27.75447539372091</v>
       </c>
       <c r="P15" t="n">
-        <v>366.1610247717624</v>
+        <v>366.0820831506874</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -37018,28 +37170,28 @@
         <v>0.0333</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1198939384503328</v>
+        <v>-0.1045102007372219</v>
       </c>
       <c r="J16" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K16" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0008522186536933374</v>
+        <v>0.0006579757440811074</v>
       </c>
       <c r="M16" t="n">
-        <v>24.04501719459518</v>
+        <v>23.9858369115939</v>
       </c>
       <c r="N16" t="n">
-        <v>947.8418347152458</v>
+        <v>941.8757721554587</v>
       </c>
       <c r="O16" t="n">
-        <v>30.78704004472086</v>
+        <v>30.68999465877208</v>
       </c>
       <c r="P16" t="n">
-        <v>362.4947155992536</v>
+        <v>362.3425052913356</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -37096,28 +37248,28 @@
         <v>0.0398</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4829319985831534</v>
+        <v>0.4671350955227831</v>
       </c>
       <c r="J17" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K17" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01615315496623115</v>
+        <v>0.01533861315707108</v>
       </c>
       <c r="M17" t="n">
-        <v>22.96091963863874</v>
+        <v>22.86190772025525</v>
       </c>
       <c r="N17" t="n">
-        <v>812.5080533825991</v>
+        <v>807.7348983407441</v>
       </c>
       <c r="O17" t="n">
-        <v>28.50452689280422</v>
+        <v>28.42067730263908</v>
       </c>
       <c r="P17" t="n">
-        <v>345.5569490706753</v>
+        <v>345.7112886184217</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -37174,28 +37326,28 @@
         <v>0.0516</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1070702811289664</v>
+        <v>0.1184949597079728</v>
       </c>
       <c r="J18" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K18" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001019192826261062</v>
+        <v>0.00126222727617753</v>
       </c>
       <c r="M18" t="n">
-        <v>20.34760197643584</v>
+        <v>20.28257758799267</v>
       </c>
       <c r="N18" t="n">
-        <v>655.6025631741113</v>
+        <v>652.2634235280758</v>
       </c>
       <c r="O18" t="n">
-        <v>25.60473712370645</v>
+        <v>25.53944837947907</v>
       </c>
       <c r="P18" t="n">
-        <v>335.0313210526658</v>
+        <v>334.9213601035678</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -37233,7 +37385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S556"/>
+  <dimension ref="A1:S558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79859,7 +80011,11 @@
           <t>-41.76987350726307,171.46008990984976</t>
         </is>
       </c>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>-41.76917794368141,171.45996823880208</t>
+        </is>
+      </c>
       <c r="M555" t="inlineStr">
         <is>
           <t>-41.7685176271791,171.4597887534255</t>
@@ -79875,8 +80031,16 @@
           <t>-41.767307769427504,171.4589760362538</t>
         </is>
       </c>
-      <c r="P555" t="inlineStr"/>
-      <c r="Q555" t="inlineStr"/>
+      <c r="P555" t="inlineStr">
+        <is>
+          <t>-41.76669198964155,171.45862552897162</t>
+        </is>
+      </c>
+      <c r="Q555" t="inlineStr">
+        <is>
+          <t>-41.76603532265987,171.45836728036804</t>
+        </is>
+      </c>
       <c r="R555" t="inlineStr">
         <is>
           <t>-41.765389579722815,171.45808227115901</t>
@@ -79945,6 +80109,200 @@
         </is>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>-41.7740372956015,171.45586232847904</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>-41.77408970968259,171.4567156597842</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>-41.773844727300094,171.45735965975712</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>-41.77335866954593,171.457901489467</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>-41.77285277386676,171.45844611363916</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>-41.772393819279884,171.45891381222478</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>-41.77185912941747,171.45953660198572</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>-41.77118462821487,171.4596126506649</t>
+        </is>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>-41.77053055158197,171.45986756222896</t>
+        </is>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>-41.769854872606146,171.45984548943605</t>
+        </is>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>-41.769186904970525,171.45960903134318</t>
+        </is>
+      </c>
+      <c r="M557" t="inlineStr">
+        <is>
+          <t>-41.76857955673413,171.4594941518008</t>
+        </is>
+      </c>
+      <c r="N557" t="inlineStr">
+        <is>
+          <t>-41.767996803109824,171.45907824968316</t>
+        </is>
+      </c>
+      <c r="O557" t="inlineStr">
+        <is>
+          <t>-41.76737809345035,171.45875730814663</t>
+        </is>
+      </c>
+      <c r="P557" t="inlineStr">
+        <is>
+          <t>-41.7668082979149,171.45831410488142</t>
+        </is>
+      </c>
+      <c r="Q557" t="inlineStr">
+        <is>
+          <t>-41.766137862709556,171.45810854305913</t>
+        </is>
+      </c>
+      <c r="R557" t="inlineStr">
+        <is>
+          <t>-41.76552498722103,171.45774060181537</t>
+        </is>
+      </c>
+      <c r="S557" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:27+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>-41.77394653090617,171.45586074941076</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>-41.774014207894076,171.45669494582606</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>-41.77383475591132,171.4573502300016</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>-41.77336685364576,171.45791291331938</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>-41.77284834886317,171.45843882661248</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>-41.772507180365444,171.45926745833765</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>-41.77185090451497,171.45948709585969</t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>-41.77120791986265,171.45980066440157</t>
+        </is>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>-41.77052763935805,171.45983083814633</t>
+        </is>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>-41.76985778312422,171.45988366462217</t>
+        </is>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>-41.76918802960459,171.45956394792566</t>
+        </is>
+      </c>
+      <c r="M558" t="inlineStr">
+        <is>
+          <t>-41.76857264286436,171.459527041592</t>
+        </is>
+      </c>
+      <c r="N558" t="inlineStr">
+        <is>
+          <t>-41.76800093538882,171.45906413436845</t>
+        </is>
+      </c>
+      <c r="O558" t="inlineStr">
+        <is>
+          <t>-41.767360254855205,171.45881279152076</t>
+        </is>
+      </c>
+      <c r="P558" t="inlineStr">
+        <is>
+          <t>-41.76682262199606,171.4582757508473</t>
+        </is>
+      </c>
+      <c r="Q558" t="inlineStr">
+        <is>
+          <t>-41.766133818175895,171.45811874859612</t>
+        </is>
+      </c>
+      <c r="R558" t="inlineStr">
+        <is>
+          <t>-41.765506871156994,171.4577863137262</t>
+        </is>
+      </c>
+      <c r="S558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S558"/>
+  <dimension ref="A1:S564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30016,6 +30016,362 @@
         </is>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>388.75</v>
+      </c>
+      <c r="C559" t="n">
+        <v>382.3053846153846</v>
+      </c>
+      <c r="D559" t="n">
+        <v>379.8833333333333</v>
+      </c>
+      <c r="E559" t="n">
+        <v>380.7477777777778</v>
+      </c>
+      <c r="F559" t="n">
+        <v>386.8557142857143</v>
+      </c>
+      <c r="G559" t="n">
+        <v>377.1657142857143</v>
+      </c>
+      <c r="H559" t="n">
+        <v>353.5777777777778</v>
+      </c>
+      <c r="I559" t="n">
+        <v>340.7288888888889</v>
+      </c>
+      <c r="J559" t="n">
+        <v>339.67</v>
+      </c>
+      <c r="K559" t="n">
+        <v>344.0328571428572</v>
+      </c>
+      <c r="L559" t="n">
+        <v>374.7457142857143</v>
+      </c>
+      <c r="M559" t="n">
+        <v>368.6457142857143</v>
+      </c>
+      <c r="N559" t="n">
+        <v>381.05</v>
+      </c>
+      <c r="O559" t="n">
+        <v>380.53</v>
+      </c>
+      <c r="P559" t="n">
+        <v>394.0266666666667</v>
+      </c>
+      <c r="Q559" t="n">
+        <v>361.6357142857143</v>
+      </c>
+      <c r="R559" t="n">
+        <v>345.74</v>
+      </c>
+      <c r="S559" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:13:18+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr"/>
+      <c r="C560" t="n">
+        <v>359.1907692307692</v>
+      </c>
+      <c r="D560" t="n">
+        <v>363.9733333333333</v>
+      </c>
+      <c r="E560" t="n">
+        <v>359.8144444444445</v>
+      </c>
+      <c r="F560" t="n">
+        <v>371.5</v>
+      </c>
+      <c r="G560" t="n">
+        <v>380.84</v>
+      </c>
+      <c r="H560" t="n">
+        <v>341.4344444444445</v>
+      </c>
+      <c r="I560" t="n">
+        <v>348.1422222222222</v>
+      </c>
+      <c r="J560" t="n">
+        <v>323.9</v>
+      </c>
+      <c r="K560" t="n">
+        <v>333.41</v>
+      </c>
+      <c r="L560" t="n">
+        <v>346.52</v>
+      </c>
+      <c r="M560" t="n">
+        <v>357.48</v>
+      </c>
+      <c r="N560" t="n">
+        <v>376.5</v>
+      </c>
+      <c r="O560" t="n">
+        <v>382.99</v>
+      </c>
+      <c r="P560" t="n">
+        <v>363.1866666666667</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>338.54</v>
+      </c>
+      <c r="R560" t="n">
+        <v>343.3</v>
+      </c>
+      <c r="S560" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>354.31</v>
+      </c>
+      <c r="C561" t="n">
+        <v>347.1838461538461</v>
+      </c>
+      <c r="D561" t="n">
+        <v>357.6233333333333</v>
+      </c>
+      <c r="E561" t="n">
+        <v>341.3511111111111</v>
+      </c>
+      <c r="F561" t="n">
+        <v>331.1585714285715</v>
+      </c>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="n">
+        <v>313.8011111111111</v>
+      </c>
+      <c r="I561" t="n">
+        <v>306.3255555555555</v>
+      </c>
+      <c r="J561" t="n">
+        <v>307.765</v>
+      </c>
+      <c r="K561" t="n">
+        <v>314.7242857142857</v>
+      </c>
+      <c r="L561" t="n">
+        <v>344.8185714285714</v>
+      </c>
+      <c r="M561" t="n">
+        <v>331.0185714285714</v>
+      </c>
+      <c r="N561" t="inlineStr"/>
+      <c r="O561" t="inlineStr"/>
+      <c r="P561" t="inlineStr"/>
+      <c r="Q561" t="inlineStr"/>
+      <c r="R561" t="n">
+        <v>296.27</v>
+      </c>
+      <c r="S561" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:25+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>363.31</v>
+      </c>
+      <c r="C562" t="n">
+        <v>355.0407692307692</v>
+      </c>
+      <c r="D562" t="n">
+        <v>359.6133333333333</v>
+      </c>
+      <c r="E562" t="n">
+        <v>352.9277777777777</v>
+      </c>
+      <c r="F562" t="n">
+        <v>346.1142857142857</v>
+      </c>
+      <c r="G562" t="inlineStr"/>
+      <c r="H562" t="n">
+        <v>318.7477777777778</v>
+      </c>
+      <c r="I562" t="n">
+        <v>318.2788888888889</v>
+      </c>
+      <c r="J562" t="n">
+        <v>318.705</v>
+      </c>
+      <c r="K562" t="n">
+        <v>311.4771428571428</v>
+      </c>
+      <c r="L562" t="n">
+        <v>349.5942857142857</v>
+      </c>
+      <c r="M562" t="n">
+        <v>337.3042857142857</v>
+      </c>
+      <c r="N562" t="inlineStr"/>
+      <c r="O562" t="inlineStr"/>
+      <c r="P562" t="inlineStr"/>
+      <c r="Q562" t="n">
+        <v>303.0742857142857</v>
+      </c>
+      <c r="R562" t="n">
+        <v>299.39</v>
+      </c>
+      <c r="S562" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="n">
+        <v>354.9523076923077</v>
+      </c>
+      <c r="D563" t="n">
+        <v>349.07</v>
+      </c>
+      <c r="E563" t="n">
+        <v>349.5933333333333</v>
+      </c>
+      <c r="F563" t="n">
+        <v>357.0185714285714</v>
+      </c>
+      <c r="G563" t="n">
+        <v>367.2585714285714</v>
+      </c>
+      <c r="H563" t="n">
+        <v>331.7433333333333</v>
+      </c>
+      <c r="I563" t="n">
+        <v>341.7066666666667</v>
+      </c>
+      <c r="J563" t="n">
+        <v>331.875</v>
+      </c>
+      <c r="K563" t="n">
+        <v>334.1242857142857</v>
+      </c>
+      <c r="L563" t="n">
+        <v>343.8585714285715</v>
+      </c>
+      <c r="M563" t="n">
+        <v>351.3685714285714</v>
+      </c>
+      <c r="N563" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="O563" t="n">
+        <v>395.07</v>
+      </c>
+      <c r="P563" t="n">
+        <v>390.78</v>
+      </c>
+      <c r="Q563" t="n">
+        <v>376.5585714285714</v>
+      </c>
+      <c r="R563" t="n">
+        <v>310.59</v>
+      </c>
+      <c r="S563" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:42+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>363.75</v>
+      </c>
+      <c r="C564" t="n">
+        <v>363.1184615384615</v>
+      </c>
+      <c r="D564" t="n">
+        <v>362.8333333333333</v>
+      </c>
+      <c r="E564" t="n">
+        <v>370.6144444444445</v>
+      </c>
+      <c r="F564" t="n">
+        <v>379.5271428571429</v>
+      </c>
+      <c r="G564" t="n">
+        <v>364.6271428571428</v>
+      </c>
+      <c r="H564" t="n">
+        <v>345.9644444444444</v>
+      </c>
+      <c r="I564" t="n">
+        <v>343.8322222222222</v>
+      </c>
+      <c r="J564" t="n">
+        <v>337.725</v>
+      </c>
+      <c r="K564" t="n">
+        <v>350.2385714285714</v>
+      </c>
+      <c r="L564" t="n">
+        <v>376.4571428571429</v>
+      </c>
+      <c r="M564" t="n">
+        <v>373.5171428571429</v>
+      </c>
+      <c r="N564" t="n">
+        <v>383.12</v>
+      </c>
+      <c r="O564" t="n">
+        <v>380.11</v>
+      </c>
+      <c r="P564" t="n">
+        <v>389.9666666666667</v>
+      </c>
+      <c r="Q564" t="n">
+        <v>361.4571428571429</v>
+      </c>
+      <c r="R564" t="n">
+        <v>343.54</v>
+      </c>
+      <c r="S564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30027,7 +30383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B587"/>
+  <dimension ref="A1:B593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35905,6 +36261,66 @@
       </c>
       <c r="B587" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
@@ -36078,28 +36494,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1612599444865867</v>
+        <v>-0.1505579050526323</v>
       </c>
       <c r="J2" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K2" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008634561618273806</v>
+        <v>0.007612109128808831</v>
       </c>
       <c r="M2" t="n">
-        <v>10.47189687512238</v>
+        <v>10.46006689086338</v>
       </c>
       <c r="N2" t="n">
-        <v>175.1419510316987</v>
+        <v>175.3112751046661</v>
       </c>
       <c r="O2" t="n">
-        <v>13.23412071245003</v>
+        <v>13.24051642137368</v>
       </c>
       <c r="P2" t="n">
-        <v>366.5737749876166</v>
+        <v>366.4701572570121</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36156,28 +36572,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3941623375071811</v>
+        <v>-0.3677501486363925</v>
       </c>
       <c r="J3" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K3" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07131504561408331</v>
+        <v>0.06267601385590205</v>
       </c>
       <c r="M3" t="n">
-        <v>8.317736958335862</v>
+        <v>8.357788899311391</v>
       </c>
       <c r="N3" t="n">
-        <v>117.0317678970425</v>
+        <v>118.5559256918356</v>
       </c>
       <c r="O3" t="n">
-        <v>10.81812219828573</v>
+        <v>10.8883389776327</v>
       </c>
       <c r="P3" t="n">
-        <v>360.0132500619819</v>
+        <v>359.7535584981707</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36234,28 +36650,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5599448486039734</v>
+        <v>-0.5403291424915961</v>
       </c>
       <c r="J4" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K4" t="n">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1525492344435333</v>
+        <v>0.1444366124343999</v>
       </c>
       <c r="M4" t="n">
-        <v>7.719839767549082</v>
+        <v>7.744696171666927</v>
       </c>
       <c r="N4" t="n">
-        <v>99.45834787235317</v>
+        <v>100.0819400294728</v>
       </c>
       <c r="O4" t="n">
-        <v>9.972880620580653</v>
+        <v>10.00409616254626</v>
       </c>
       <c r="P4" t="n">
-        <v>368.857145290883</v>
+        <v>368.6629659527474</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36312,28 +36728,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5607297089113138</v>
+        <v>-0.5411477138138489</v>
       </c>
       <c r="J5" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K5" t="n">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1279348941560431</v>
+        <v>0.1202958099587893</v>
       </c>
       <c r="M5" t="n">
-        <v>8.574085773953854</v>
+        <v>8.621366004928955</v>
       </c>
       <c r="N5" t="n">
-        <v>122.8989444577957</v>
+        <v>124.4194646149196</v>
       </c>
       <c r="O5" t="n">
-        <v>11.08597963455624</v>
+        <v>11.1543473415041</v>
       </c>
       <c r="P5" t="n">
-        <v>365.8349024849148</v>
+        <v>365.6411114330049</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36390,28 +36806,28 @@
         <v>0.0367</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7500053282513318</v>
+        <v>-0.7252742812623878</v>
       </c>
       <c r="J6" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K6" t="n">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1235110375278939</v>
+        <v>0.1163519291572757</v>
       </c>
       <c r="M6" t="n">
-        <v>11.62268235325712</v>
+        <v>11.72343464987806</v>
       </c>
       <c r="N6" t="n">
-        <v>224.3357520601764</v>
+        <v>227.6505530798939</v>
       </c>
       <c r="O6" t="n">
-        <v>14.9778420361605</v>
+        <v>15.08809308958206</v>
       </c>
       <c r="P6" t="n">
-        <v>371.8791823912752</v>
+        <v>371.6318145802021</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36468,28 +36884,28 @@
         <v>0.0428</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9123405789100609</v>
+        <v>-0.8508454373675075</v>
       </c>
       <c r="J7" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K7" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1100822549653402</v>
+        <v>0.09641550191395887</v>
       </c>
       <c r="M7" t="n">
-        <v>15.19752466950304</v>
+        <v>15.35588012767291</v>
       </c>
       <c r="N7" t="n">
-        <v>363.0347744448182</v>
+        <v>369.8547808695322</v>
       </c>
       <c r="O7" t="n">
-        <v>19.05347145390619</v>
+        <v>19.23160889966131</v>
       </c>
       <c r="P7" t="n">
-        <v>364.0399251009423</v>
+        <v>363.4074077961228</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36546,28 +36962,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6420925905329727</v>
+        <v>-0.6407149922630681</v>
       </c>
       <c r="J8" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K8" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09539727901263662</v>
+        <v>0.09624930502931206</v>
       </c>
       <c r="M8" t="n">
-        <v>11.69728034984668</v>
+        <v>11.7120922929837</v>
       </c>
       <c r="N8" t="n">
-        <v>219.9472086341682</v>
+        <v>219.7414361021835</v>
       </c>
       <c r="O8" t="n">
-        <v>14.83061727084103</v>
+        <v>14.82367822445507</v>
       </c>
       <c r="P8" t="n">
-        <v>350.3138720884055</v>
+        <v>350.3001663031296</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36624,28 +37040,28 @@
         <v>0.1025</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6222269010318994</v>
+        <v>-0.6196407372504272</v>
       </c>
       <c r="J9" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K9" t="n">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07608056111220562</v>
+        <v>0.07653785324522022</v>
       </c>
       <c r="M9" t="n">
-        <v>12.52330374872943</v>
+        <v>12.54813677545426</v>
       </c>
       <c r="N9" t="n">
-        <v>263.4674982737196</v>
+        <v>263.0989852900468</v>
       </c>
       <c r="O9" t="n">
-        <v>16.23168192990855</v>
+        <v>16.22032630035681</v>
       </c>
       <c r="P9" t="n">
-        <v>348.281062459761</v>
+        <v>348.2551139619047</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36702,28 +37118,28 @@
         <v>0.0882</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5702573580688203</v>
+        <v>-0.579393769705331</v>
       </c>
       <c r="J10" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K10" t="n">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07364946806581218</v>
+        <v>0.07720146243421622</v>
       </c>
       <c r="M10" t="n">
-        <v>11.8070552919678</v>
+        <v>11.78110827620943</v>
       </c>
       <c r="N10" t="n">
-        <v>228.2775844389452</v>
+        <v>227.0120821187483</v>
       </c>
       <c r="O10" t="n">
-        <v>15.10885781384368</v>
+        <v>15.06692012717756</v>
       </c>
       <c r="P10" t="n">
-        <v>344.9808272242224</v>
+        <v>345.0729192261686</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36780,28 +37196,28 @@
         <v>0.0775</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5789958059653937</v>
+        <v>-0.5971162289095204</v>
       </c>
       <c r="J11" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K11" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07375001913451884</v>
+        <v>0.07900518726286077</v>
       </c>
       <c r="M11" t="n">
-        <v>11.98952108569094</v>
+        <v>12.00549515576198</v>
       </c>
       <c r="N11" t="n">
-        <v>236.733077874739</v>
+        <v>236.8871718309384</v>
       </c>
       <c r="O11" t="n">
-        <v>15.3861326484188</v>
+        <v>15.39113939352569</v>
       </c>
       <c r="P11" t="n">
-        <v>353.3985997478424</v>
+        <v>353.5806347407198</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36858,28 +37274,28 @@
         <v>0.0377</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5278672049002502</v>
+        <v>-0.5477603460998955</v>
       </c>
       <c r="J12" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K12" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05835646647892645</v>
+        <v>0.06337613648370499</v>
       </c>
       <c r="M12" t="n">
-        <v>12.45767228560271</v>
+        <v>12.50193858014943</v>
       </c>
       <c r="N12" t="n">
-        <v>249.6682274800582</v>
+        <v>249.6327570625257</v>
       </c>
       <c r="O12" t="n">
-        <v>15.80089324943556</v>
+        <v>15.79977079145535</v>
       </c>
       <c r="P12" t="n">
-        <v>377.0498070008882</v>
+        <v>377.2526126563336</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36936,28 +37352,28 @@
         <v>0.0443</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4748304774471707</v>
+        <v>-0.4998080218344184</v>
       </c>
       <c r="J13" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K13" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02342438838701144</v>
+        <v>0.02643944910333751</v>
       </c>
       <c r="M13" t="n">
-        <v>17.43578650642798</v>
+        <v>17.37989676202294</v>
       </c>
       <c r="N13" t="n">
-        <v>516.9775013595621</v>
+        <v>513.5992721021914</v>
       </c>
       <c r="O13" t="n">
-        <v>22.73713925188396</v>
+        <v>22.6627286993908</v>
       </c>
       <c r="P13" t="n">
-        <v>374.0495019680802</v>
+        <v>374.3053065006602</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37014,28 +37430,28 @@
         <v>0.0475</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.417978151006267</v>
+        <v>-0.3750134641016729</v>
       </c>
       <c r="J14" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K14" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01677086553583162</v>
+        <v>0.01371627083877514</v>
       </c>
       <c r="M14" t="n">
-        <v>18.69841452695941</v>
+        <v>18.72493643751252</v>
       </c>
       <c r="N14" t="n">
-        <v>574.2357709045828</v>
+        <v>572.8157000532407</v>
       </c>
       <c r="O14" t="n">
-        <v>23.96321703996738</v>
+        <v>23.93356847720876</v>
       </c>
       <c r="P14" t="n">
-        <v>369.344169422363</v>
+        <v>368.9092665706047</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -37092,28 +37508,28 @@
         <v>0.0616</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.15762222379827</v>
+        <v>-0.1081621826288807</v>
       </c>
       <c r="J15" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K15" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001794408641261236</v>
+        <v>0.0008586990951314766</v>
       </c>
       <c r="M15" t="n">
-        <v>22.04579192718971</v>
+        <v>22.09176138996428</v>
       </c>
       <c r="N15" t="n">
-        <v>770.3109043806593</v>
+        <v>767.5389902221982</v>
       </c>
       <c r="O15" t="n">
-        <v>27.75447539372091</v>
+        <v>27.70449404378644</v>
       </c>
       <c r="P15" t="n">
-        <v>366.0820831506874</v>
+        <v>365.5827678493345</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -37170,28 +37586,28 @@
         <v>0.0333</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1045102007372219</v>
+        <v>-0.04939853661847624</v>
       </c>
       <c r="J16" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K16" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006579757440811074</v>
+        <v>0.0001492455068673459</v>
       </c>
       <c r="M16" t="n">
-        <v>23.9858369115939</v>
+        <v>24.01508950970601</v>
       </c>
       <c r="N16" t="n">
-        <v>941.8757721554587</v>
+        <v>939.5801853614519</v>
       </c>
       <c r="O16" t="n">
-        <v>30.68999465877208</v>
+        <v>30.65257224706357</v>
       </c>
       <c r="P16" t="n">
-        <v>362.3425052913356</v>
+        <v>361.7968736255576</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -37248,28 +37664,28 @@
         <v>0.0398</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4671350955227831</v>
+        <v>0.4436826984488996</v>
       </c>
       <c r="J17" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K17" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01533861315707108</v>
+        <v>0.01405050405213981</v>
       </c>
       <c r="M17" t="n">
-        <v>22.86190772025525</v>
+        <v>22.83124110379655</v>
       </c>
       <c r="N17" t="n">
-        <v>807.7348983407441</v>
+        <v>806.8995984895893</v>
       </c>
       <c r="O17" t="n">
-        <v>28.42067730263908</v>
+        <v>28.40597821743848</v>
       </c>
       <c r="P17" t="n">
-        <v>345.7112886184217</v>
+        <v>345.9423323988944</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -37326,28 +37742,28 @@
         <v>0.0516</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1184949597079728</v>
+        <v>0.07072266073671274</v>
       </c>
       <c r="J18" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K18" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00126222727617753</v>
+        <v>0.0004577411502308948</v>
       </c>
       <c r="M18" t="n">
-        <v>20.28257758799267</v>
+        <v>20.31316505528179</v>
       </c>
       <c r="N18" t="n">
-        <v>652.2634235280758</v>
+        <v>652.6178358209173</v>
       </c>
       <c r="O18" t="n">
-        <v>25.53944837947907</v>
+        <v>25.54638596398554</v>
       </c>
       <c r="P18" t="n">
-        <v>334.9213601035678</v>
+        <v>335.3830736477006</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -37385,7 +37801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S558"/>
+  <dimension ref="A1:S564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80303,6 +80719,544 @@
         </is>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>-41.77392672115107,171.45586040477292</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>-41.77397331193853,171.45668372601733</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>-41.773787544927856,171.457305583508</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>-41.773327455116174,171.45785791855377</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>-41.7728210370179,171.4583938499317</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>-41.77239472572719,171.45891663999842</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>-41.77182948585049,171.45935817643715</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>-41.7711947336061,171.45969422260492</t>
+        </is>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>-41.77052479826837,171.45979501123534</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>-41.76985317816527,171.45982326474368</t>
+        </is>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>-41.76918878063608,171.45953384078945</t>
+        </is>
+      </c>
+      <c r="M559" t="inlineStr">
+        <is>
+          <t>-41.768588063423984,171.45945368477473</t>
+        </is>
+      </c>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>-41.7680245155819,171.45898358741982</t>
+        </is>
+      </c>
+      <c r="O559" t="inlineStr">
+        <is>
+          <t>-41.767410572415805,171.45865628853954</t>
+        </is>
+      </c>
+      <c r="P559" t="inlineStr">
+        <is>
+          <t>-41.76687760008275,171.458128541522</t>
+        </is>
+      </c>
+      <c r="Q559" t="inlineStr">
+        <is>
+          <t>-41.766161684512525,171.45804843363564</t>
+        </is>
+      </c>
+      <c r="R559" t="inlineStr">
+        <is>
+          <t>-41.76550649198335,171.45778727048685</t>
+        </is>
+      </c>
+      <c r="S559" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:13:18+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr"/>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>-41.7741772081556,171.4567396650984</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>-41.77390448211803,171.45741616884425</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>-41.773457791857865,171.45803985057293</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>-41.77290815120888,171.4585373083273</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>-41.772381701237585,171.45887600853217</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>-41.771853178613746,171.45950078376723</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>-41.77118383428742,171.45960624200734</t>
+        </is>
+      </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>-41.770539757737446,171.4599836558108</t>
+        </is>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>-41.76986287030928,171.45995039000144</t>
+        </is>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>-41.76918031532976,171.4598731772123</t>
+        </is>
+      </c>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>-41.768560880917086,171.4595829939274</t>
+        </is>
+      </c>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>-41.76800959349143,171.45903455941766</t>
+        </is>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>-41.767419314003696,171.45862909943787</t>
+        </is>
+      </c>
+      <c r="P560" t="inlineStr">
+        <is>
+          <t>-41.76675362777443,171.45846048869296</t>
+        </is>
+      </c>
+      <c r="Q560" t="inlineStr">
+        <is>
+          <t>-41.7660643808506,171.45829395863748</t>
+        </is>
+      </c>
+      <c r="R560" t="inlineStr">
+        <is>
+          <t>-41.76549621216173,171.45781320932699</t>
+        </is>
+      </c>
+      <c r="S560" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>-41.774236833855575,171.45586579992494</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>-41.77428312235298,171.456768722874</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>-41.77395115406677,171.45746030578056</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>-41.773572749462936,171.45820031638482</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>-41.77313701051966,171.45891419376943</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr"/>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>-41.771907093141856,171.45982530099494</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>-41.77124531360623,171.46010251787138</t>
+        </is>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>-41.77055506312736,171.4601766667053</t>
+        </is>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>-41.769879918549734,171.4601740047322</t>
+        </is>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>-41.769179805014254,171.45989363219974</t>
+        </is>
+      </c>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>-41.768496460986086,171.45988944097866</t>
+        </is>
+      </c>
+      <c r="N561" t="inlineStr"/>
+      <c r="O561" t="inlineStr"/>
+      <c r="P561" t="inlineStr"/>
+      <c r="Q561" t="inlineStr"/>
+      <c r="R561" t="inlineStr">
+        <is>
+          <t>-41.765298071637645,171.45831316824632</t>
+        </is>
+      </c>
+      <c r="S561" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:25+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>-41.77415579395171,171.45586439004134</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>-41.774213815696655,171.45674970844132</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>-41.77393652774126,171.45744647388346</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>-41.77350067009444,171.45809970289204</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>-41.773052166007794,171.45877447130883</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr"/>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>-41.77189744192273,171.45976720884622</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>-41.77122773990269,171.45996065684764</t>
+        </is>
+      </c>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>-41.77054468566241,171.46004579968547</t>
+        </is>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>-41.76988288109349,171.46021286378866</t>
+        </is>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>-41.769181237401945,171.45983621740234</t>
+        </is>
+      </c>
+      <c r="M562" t="inlineStr">
+        <is>
+          <t>-41.76851176353354,171.45981664682895</t>
+        </is>
+      </c>
+      <c r="N562" t="inlineStr"/>
+      <c r="O562" t="inlineStr"/>
+      <c r="P562" t="inlineStr"/>
+      <c r="Q562" t="inlineStr">
+        <is>
+          <t>-41.76591496057005,171.45867098472098</t>
+        </is>
+      </c>
+      <c r="R562" t="inlineStr">
+        <is>
+          <t>-41.76531121647478,171.45828000074866</t>
+        </is>
+      </c>
+      <c r="S562" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:19:38+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>-41.77421459602421,171.45674992252566</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>-41.77401402029855,171.4575197575232</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>-41.773521431230435,171.45812868272225</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>-41.772990305347975,171.45867259920078</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>-41.77242984417758,171.45902619654348</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>-41.77187208673944,171.4596145930815</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>-41.771193296049915,171.45968261844754</t>
+        </is>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>-41.77053219266719,171.45988825690907</t>
+        </is>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>-41.76986221860953,171.45994184204034</t>
+        </is>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>-41.76917951707643,171.45990517355278</t>
+        </is>
+      </c>
+      <c r="M563" t="inlineStr">
+        <is>
+          <t>-41.7685460028141,171.45965376979834</t>
+        </is>
+      </c>
+      <c r="N563" t="inlineStr">
+        <is>
+          <t>-41.76801615265492,171.4590121541467</t>
+        </is>
+      </c>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>-41.76746224007975,171.4584955853704</t>
+        </is>
+      </c>
+      <c r="P563" t="inlineStr">
+        <is>
+          <t>-41.76686454900192,171.45816348716534</t>
+        </is>
+      </c>
+      <c r="Q563" t="inlineStr">
+        <is>
+          <t>-41.76622455513897,171.4578897919301</t>
+        </is>
+      </c>
+      <c r="R563" t="inlineStr">
+        <is>
+          <t>-41.76535840298858,171.45816093782673</t>
+        </is>
+      </c>
+      <c r="S563" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:42+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>-41.77415183200084,171.45586432111372</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>-41.77414256161081,171.45673015976845</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>-41.77391286102025,171.45742409263605</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>-41.77339054809599,171.45794598746457</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>-41.77286261260939,171.45846231593282</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>-41.77243917194482,171.45905529579343</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>-41.771844340186476,171.4594475849178</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>-41.77119017099477,171.4596573925937</t>
+        </is>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>-41.77052664331785,171.45981827779318</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>-41.76984751609485,171.45974900008883</t>
+        </is>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>-41.76918929388635,171.4595132655758</t>
+        </is>
+      </c>
+      <c r="M564" t="inlineStr">
+        <is>
+          <t>-41.7685999226854,171.459397269157</t>
+        </is>
+      </c>
+      <c r="N564" t="inlineStr">
+        <is>
+          <t>-41.76803130430553,171.45896039795383</t>
+        </is>
+      </c>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>-41.76740907994892,171.45866093058058</t>
+        </is>
+      </c>
+      <c r="P564" t="inlineStr">
+        <is>
+          <t>-41.76686127953029,171.45817224151324</t>
+        </is>
+      </c>
+      <c r="Q564" t="inlineStr">
+        <is>
+          <t>-41.76616093218219,171.4580503319885</t>
+        </is>
+      </c>
+      <c r="R564" t="inlineStr">
+        <is>
+          <t>-41.765497223291995,171.457810657966</t>
+        </is>
+      </c>
+      <c r="S564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S564"/>
+  <dimension ref="A1:S566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30372,6 +30372,128 @@
         </is>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>368.35</v>
+      </c>
+      <c r="C565" t="n">
+        <v>367.7638461538461</v>
+      </c>
+      <c r="D565" t="n">
+        <v>370.4933333333333</v>
+      </c>
+      <c r="E565" t="n">
+        <v>371.9277777777777</v>
+      </c>
+      <c r="F565" t="n">
+        <v>376.2528571428572</v>
+      </c>
+      <c r="G565" t="n">
+        <v>360.4328571428572</v>
+      </c>
+      <c r="H565" t="n">
+        <v>340.8377777777778</v>
+      </c>
+      <c r="I565" t="n">
+        <v>346.5088888888889</v>
+      </c>
+      <c r="J565" t="n">
+        <v>337.625</v>
+      </c>
+      <c r="K565" t="n">
+        <v>348.6914285714286</v>
+      </c>
+      <c r="L565" t="n">
+        <v>372.8928571428572</v>
+      </c>
+      <c r="M565" t="n">
+        <v>363.0828571428572</v>
+      </c>
+      <c r="N565" t="n">
+        <v>372.16</v>
+      </c>
+      <c r="O565" t="n">
+        <v>375.44</v>
+      </c>
+      <c r="P565" t="n">
+        <v>379.2466666666666</v>
+      </c>
+      <c r="Q565" t="n">
+        <v>360.1728571428571</v>
+      </c>
+      <c r="R565" t="n">
+        <v>345.09</v>
+      </c>
+      <c r="S565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>349.34</v>
+      </c>
+      <c r="C566" t="n">
+        <v>345.3507692307692</v>
+      </c>
+      <c r="D566" t="n">
+        <v>355.1933333333333</v>
+      </c>
+      <c r="E566" t="n">
+        <v>352.1511111111111</v>
+      </c>
+      <c r="F566" t="n">
+        <v>353.5614285714286</v>
+      </c>
+      <c r="G566" t="n">
+        <v>336.6014285714285</v>
+      </c>
+      <c r="H566" t="n">
+        <v>325.5711111111111</v>
+      </c>
+      <c r="I566" t="n">
+        <v>324.1355555555555</v>
+      </c>
+      <c r="J566" t="n">
+        <v>327.69</v>
+      </c>
+      <c r="K566" t="n">
+        <v>332.5757142857143</v>
+      </c>
+      <c r="L566" t="n">
+        <v>358.9414285714286</v>
+      </c>
+      <c r="M566" t="n">
+        <v>339.9914285714286</v>
+      </c>
+      <c r="N566" t="n">
+        <v>337.41</v>
+      </c>
+      <c r="O566" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="P566" t="inlineStr"/>
+      <c r="Q566" t="inlineStr"/>
+      <c r="R566" t="n">
+        <v>315.38</v>
+      </c>
+      <c r="S566" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30383,7 +30505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B593"/>
+  <dimension ref="A1:B595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36321,6 +36443,26 @@
       </c>
       <c r="B593" t="n">
         <v>1.01</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -36494,28 +36636,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1505579050526323</v>
+        <v>-0.1544258975113871</v>
       </c>
       <c r="J2" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K2" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007612109128808831</v>
+        <v>0.008067274876110475</v>
       </c>
       <c r="M2" t="n">
-        <v>10.46006689086338</v>
+        <v>10.45342347847287</v>
       </c>
       <c r="N2" t="n">
-        <v>175.3112751046661</v>
+        <v>174.8988228368231</v>
       </c>
       <c r="O2" t="n">
-        <v>13.24051642137368</v>
+        <v>13.2249318651108</v>
       </c>
       <c r="P2" t="n">
-        <v>366.4701572570121</v>
+        <v>366.508033037116</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36572,28 +36714,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3677501486363925</v>
+        <v>-0.3624658182827679</v>
       </c>
       <c r="J3" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K3" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06267601385590205</v>
+        <v>0.06113665465542673</v>
       </c>
       <c r="M3" t="n">
-        <v>8.357788899311391</v>
+        <v>8.370658957756447</v>
       </c>
       <c r="N3" t="n">
-        <v>118.5559256918356</v>
+        <v>118.7729654091699</v>
       </c>
       <c r="O3" t="n">
-        <v>10.8883389776327</v>
+        <v>10.89830103315053</v>
       </c>
       <c r="P3" t="n">
-        <v>359.7535584981707</v>
+        <v>359.7015082457933</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36650,28 +36792,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5403291424915961</v>
+        <v>-0.5335005810120539</v>
       </c>
       <c r="J4" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K4" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1444366124343999</v>
+        <v>0.1417059560696059</v>
       </c>
       <c r="M4" t="n">
-        <v>7.744696171666927</v>
+        <v>7.746902801915414</v>
       </c>
       <c r="N4" t="n">
-        <v>100.0819400294728</v>
+        <v>100.1970202034632</v>
       </c>
       <c r="O4" t="n">
-        <v>10.00409616254626</v>
+        <v>10.00984616282704</v>
       </c>
       <c r="P4" t="n">
-        <v>368.6629659527474</v>
+        <v>368.5951252135116</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36728,28 +36870,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5411477138138489</v>
+        <v>-0.5325424154544236</v>
       </c>
       <c r="J5" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K5" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1202958099587893</v>
+        <v>0.1170729458462993</v>
       </c>
       <c r="M5" t="n">
-        <v>8.621366004928955</v>
+        <v>8.631465040483892</v>
       </c>
       <c r="N5" t="n">
-        <v>124.4194646149196</v>
+        <v>124.7899091927525</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1543473415041</v>
+        <v>11.17094038981287</v>
       </c>
       <c r="P5" t="n">
-        <v>365.6411114330049</v>
+        <v>365.5556815061726</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36806,28 +36948,28 @@
         <v>0.0367</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7252742812623878</v>
+        <v>-0.7149387075867395</v>
       </c>
       <c r="J6" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K6" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1163519291572757</v>
+        <v>0.1137880329204004</v>
       </c>
       <c r="M6" t="n">
-        <v>11.72343464987806</v>
+        <v>11.72614166597019</v>
       </c>
       <c r="N6" t="n">
-        <v>227.6505530798939</v>
+        <v>227.8643151399528</v>
       </c>
       <c r="O6" t="n">
-        <v>15.08809308958206</v>
+        <v>15.09517522720266</v>
       </c>
       <c r="P6" t="n">
-        <v>371.6318145802021</v>
+        <v>371.5281329463952</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36884,28 +37026,28 @@
         <v>0.0428</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8508454373675075</v>
+        <v>-0.8439791520470308</v>
       </c>
       <c r="J7" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K7" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09641550191395887</v>
+        <v>0.09565530326634353</v>
       </c>
       <c r="M7" t="n">
-        <v>15.35588012767291</v>
+        <v>15.33901548310721</v>
       </c>
       <c r="N7" t="n">
-        <v>369.8547808695322</v>
+        <v>368.9760178510309</v>
       </c>
       <c r="O7" t="n">
-        <v>19.23160889966131</v>
+        <v>19.2087484717519</v>
       </c>
       <c r="P7" t="n">
-        <v>363.4074077961228</v>
+        <v>363.3366819347243</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36962,28 +37104,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6407149922630681</v>
+        <v>-0.6410781876153683</v>
       </c>
       <c r="J8" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K8" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09624930502931206</v>
+        <v>0.09700786352863411</v>
       </c>
       <c r="M8" t="n">
-        <v>11.7120922929837</v>
+        <v>11.69364977879211</v>
       </c>
       <c r="N8" t="n">
-        <v>219.7414361021835</v>
+        <v>219.0166684327374</v>
       </c>
       <c r="O8" t="n">
-        <v>14.82367822445507</v>
+        <v>14.79921175038513</v>
       </c>
       <c r="P8" t="n">
-        <v>350.3001663031296</v>
+        <v>350.3039299276347</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -37040,28 +37182,28 @@
         <v>0.1025</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6196407372504272</v>
+        <v>-0.6170277962451391</v>
       </c>
       <c r="J9" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K9" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07653785324522022</v>
+        <v>0.07640040177586149</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54813677545426</v>
+        <v>12.54354176524673</v>
       </c>
       <c r="N9" t="n">
-        <v>263.0989852900468</v>
+        <v>262.5261155518597</v>
       </c>
       <c r="O9" t="n">
-        <v>16.22032630035681</v>
+        <v>16.20265766940287</v>
       </c>
       <c r="P9" t="n">
-        <v>348.2551139619047</v>
+        <v>348.2289522131428</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -37118,28 +37260,28 @@
         <v>0.0882</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.579393769705331</v>
+        <v>-0.5771471745680664</v>
       </c>
       <c r="J10" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K10" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07720146243421622</v>
+        <v>0.0772416681546616</v>
       </c>
       <c r="M10" t="n">
-        <v>11.78110827620943</v>
+        <v>11.74933747975579</v>
       </c>
       <c r="N10" t="n">
-        <v>227.0120821187483</v>
+        <v>226.1152623173001</v>
       </c>
       <c r="O10" t="n">
-        <v>15.06692012717756</v>
+        <v>15.03712945735655</v>
       </c>
       <c r="P10" t="n">
-        <v>345.0729192261686</v>
+        <v>345.050250130464</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -37196,28 +37338,28 @@
         <v>0.0775</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5971162289095204</v>
+        <v>-0.5949214014046554</v>
       </c>
       <c r="J11" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K11" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07900518726286077</v>
+        <v>0.07902366138510464</v>
       </c>
       <c r="M11" t="n">
-        <v>12.00549515576198</v>
+        <v>11.98651107106856</v>
       </c>
       <c r="N11" t="n">
-        <v>236.8871718309384</v>
+        <v>236.115044524557</v>
       </c>
       <c r="O11" t="n">
-        <v>15.39113939352569</v>
+        <v>15.36603541986537</v>
       </c>
       <c r="P11" t="n">
-        <v>353.5806347407198</v>
+        <v>353.5586071223218</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37274,28 +37416,28 @@
         <v>0.0377</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5477603460998955</v>
+        <v>-0.5451603660767432</v>
       </c>
       <c r="J12" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K12" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06337613648370499</v>
+        <v>0.06329842097167038</v>
       </c>
       <c r="M12" t="n">
-        <v>12.50193858014943</v>
+        <v>12.47483508950893</v>
       </c>
       <c r="N12" t="n">
-        <v>249.6327570625257</v>
+        <v>248.6853586169798</v>
       </c>
       <c r="O12" t="n">
-        <v>15.79977079145535</v>
+        <v>15.7697608928284</v>
       </c>
       <c r="P12" t="n">
-        <v>377.2526126563336</v>
+        <v>377.2261074296052</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37352,28 +37494,28 @@
         <v>0.0443</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4998080218344184</v>
+        <v>-0.5093240622989602</v>
       </c>
       <c r="J13" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K13" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02643944910333751</v>
+        <v>0.02763595928209728</v>
       </c>
       <c r="M13" t="n">
-        <v>17.37989676202294</v>
+        <v>17.34528339591732</v>
       </c>
       <c r="N13" t="n">
-        <v>513.5992721021914</v>
+        <v>512.0811164963942</v>
       </c>
       <c r="O13" t="n">
-        <v>22.6627286993908</v>
+        <v>22.62920936525168</v>
       </c>
       <c r="P13" t="n">
-        <v>374.3053065006602</v>
+        <v>374.4033568853612</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37430,28 +37572,28 @@
         <v>0.0475</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3750134641016729</v>
+        <v>-0.3794306929081996</v>
       </c>
       <c r="J14" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K14" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01371627083877514</v>
+        <v>0.01413990651086505</v>
       </c>
       <c r="M14" t="n">
-        <v>18.72493643751252</v>
+        <v>18.71744878617727</v>
       </c>
       <c r="N14" t="n">
-        <v>572.8157000532407</v>
+        <v>571.4314148170015</v>
       </c>
       <c r="O14" t="n">
-        <v>23.93356847720876</v>
+        <v>23.90463166034987</v>
       </c>
       <c r="P14" t="n">
-        <v>368.9092665706047</v>
+        <v>368.9544567163314</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -37508,28 +37650,28 @@
         <v>0.0616</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1081621826288807</v>
+        <v>-0.112911200916442</v>
       </c>
       <c r="J15" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K15" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0008586990951314766</v>
+        <v>0.0009442387887715897</v>
       </c>
       <c r="M15" t="n">
-        <v>22.09176138996428</v>
+        <v>22.05836014643492</v>
       </c>
       <c r="N15" t="n">
-        <v>767.5389902221982</v>
+        <v>764.8602066993419</v>
       </c>
       <c r="O15" t="n">
-        <v>27.70449404378644</v>
+        <v>27.65610613769303</v>
       </c>
       <c r="P15" t="n">
-        <v>365.5827678493345</v>
+        <v>365.6312040420432</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -37586,28 +37728,28 @@
         <v>0.0333</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04939853661847624</v>
+        <v>-0.03906799515670285</v>
       </c>
       <c r="J16" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K16" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001492455068673459</v>
+        <v>9.380645165091295e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>24.01508950970601</v>
+        <v>24.00389332375978</v>
       </c>
       <c r="N16" t="n">
-        <v>939.5801853614519</v>
+        <v>937.819097043365</v>
       </c>
       <c r="O16" t="n">
-        <v>30.65257224706357</v>
+        <v>30.62383217435997</v>
       </c>
       <c r="P16" t="n">
-        <v>361.7968736255576</v>
+        <v>361.6943823303585</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -37664,28 +37806,28 @@
         <v>0.0398</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4436826984488996</v>
+        <v>0.4449991292154137</v>
       </c>
       <c r="J17" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K17" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01405050405213981</v>
+        <v>0.01420506258728693</v>
       </c>
       <c r="M17" t="n">
-        <v>22.83124110379655</v>
+        <v>22.7763367752103</v>
       </c>
       <c r="N17" t="n">
-        <v>806.8995984895893</v>
+        <v>804.7382695752276</v>
       </c>
       <c r="O17" t="n">
-        <v>28.40597821743848</v>
+        <v>28.36790915057413</v>
       </c>
       <c r="P17" t="n">
-        <v>345.9423323988944</v>
+        <v>345.9293224342695</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -37742,28 +37884,28 @@
         <v>0.0516</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07072266073671274</v>
+        <v>0.06326604403612748</v>
       </c>
       <c r="J18" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K18" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004577411502308948</v>
+        <v>0.0003696704124502848</v>
       </c>
       <c r="M18" t="n">
-        <v>20.31316505528179</v>
+        <v>20.28436732400267</v>
       </c>
       <c r="N18" t="n">
-        <v>652.6178358209173</v>
+        <v>650.3395970671741</v>
       </c>
       <c r="O18" t="n">
-        <v>25.54638596398554</v>
+        <v>25.50175674472592</v>
       </c>
       <c r="P18" t="n">
-        <v>335.3830736477006</v>
+        <v>335.4556782433131</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -37801,7 +37943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S564"/>
+  <dimension ref="A1:S566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81257,6 +81399,192 @@
         </is>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:27+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>-41.774110411605086,171.45586360050675</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>-41.774101584233335,171.45671891757817</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>-41.77385656066714,171.4573708503553</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>-41.77338237091742,171.45793457326047</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>-41.7728811878901,171.4584929054498</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>-41.77245403964138,171.4591016776776</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>-41.771854342760925,171.45950779082798</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>-41.77118623567183,171.45962562621898</t>
+        </is>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>-41.77052673817888,171.45981947401725</t>
+        </is>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>-41.76984892770667,171.45976751496346</t>
+        </is>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>-41.76918822496779,171.45955611629185</t>
+        </is>
+      </c>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>-41.768574520878225,171.45951810774596</t>
+        </is>
+      </c>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>-41.76799536009137,171.45908317884025</t>
+        </is>
+      </c>
+      <c r="O565" t="inlineStr">
+        <is>
+          <t>-41.76739248512567,171.4587125456416</t>
+        </is>
+      </c>
+      <c r="P565" t="inlineStr">
+        <is>
+          <t>-41.766818186758115,171.45828762660707</t>
+        </is>
+      </c>
+      <c r="Q565" t="inlineStr">
+        <is>
+          <t>-41.766155521421574,171.4580639849409</t>
+        </is>
+      </c>
+      <c r="R565" t="inlineStr">
+        <is>
+          <t>-41.76550375350686,171.45779418042457</t>
+        </is>
+      </c>
+      <c r="S565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>-41.77428158589092,171.4558665784942</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>-41.77429929209619,171.4567731590841</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>-41.773969014351515,171.45747719599504</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>-41.773505505827856,171.4581064529408</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>-41.77300991793401,171.4587048971621</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>-41.772538515761276,171.45936521439822</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>-41.771884129175845,171.4596870777249</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>-41.77121912941054,171.4598911505145</t>
+        </is>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>-41.770536162560276,171.45993831890019</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>-41.7698636314938,171.45996037402028</t>
+        </is>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>-41.76918404082235,171.45972384377507</t>
+        </is>
+      </c>
+      <c r="M566" t="inlineStr">
+        <is>
+          <t>-41.7685183053583,171.45978552731978</t>
+        </is>
+      </c>
+      <c r="N566" t="inlineStr">
+        <is>
+          <t>-41.76788139374669,171.45947246954353</t>
+        </is>
+      </c>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>-41.767271523428455,171.45908877112385</t>
+        </is>
+      </c>
+      <c r="P566" t="inlineStr"/>
+      <c r="Q566" t="inlineStr"/>
+      <c r="R566" t="inlineStr">
+        <is>
+          <t>-41.765378583610705,171.4581100171139</t>
+        </is>
+      </c>
+      <c r="S566" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S566"/>
+  <dimension ref="A1:S568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30483,12 +30483,136 @@
       <c r="O566" t="n">
         <v>341.4</v>
       </c>
-      <c r="P566" t="inlineStr"/>
-      <c r="Q566" t="inlineStr"/>
+      <c r="P566" t="n">
+        <v>331.4566666666667</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>317.5614285714286</v>
+      </c>
       <c r="R566" t="n">
         <v>315.38</v>
       </c>
       <c r="S566" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:38+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="n">
+        <v>344.2061538461539</v>
+      </c>
+      <c r="D567" t="n">
+        <v>352.53</v>
+      </c>
+      <c r="E567" t="n">
+        <v>346.9</v>
+      </c>
+      <c r="F567" t="n">
+        <v>353.5457142857143</v>
+      </c>
+      <c r="G567" t="n">
+        <v>349.5557142857143</v>
+      </c>
+      <c r="H567" t="n">
+        <v>320.31</v>
+      </c>
+      <c r="I567" t="n">
+        <v>331.91</v>
+      </c>
+      <c r="J567" t="n">
+        <v>326.755</v>
+      </c>
+      <c r="K567" t="n">
+        <v>336.1928571428572</v>
+      </c>
+      <c r="L567" t="n">
+        <v>349.5757142857143</v>
+      </c>
+      <c r="M567" t="n">
+        <v>339.6757142857143</v>
+      </c>
+      <c r="N567" t="n">
+        <v>347.7</v>
+      </c>
+      <c r="O567" t="n">
+        <v>344.34</v>
+      </c>
+      <c r="P567" t="n">
+        <v>334.02</v>
+      </c>
+      <c r="Q567" t="n">
+        <v>324.9657142857143</v>
+      </c>
+      <c r="R567" t="n">
+        <v>312.24</v>
+      </c>
+      <c r="S567" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:19:57+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>367.98</v>
+      </c>
+      <c r="C568" t="n">
+        <v>354.2353846153846</v>
+      </c>
+      <c r="D568" t="n">
+        <v>349.9633333333333</v>
+      </c>
+      <c r="E568" t="n">
+        <v>350.6244444444445</v>
+      </c>
+      <c r="F568" t="n">
+        <v>351.4514285714285</v>
+      </c>
+      <c r="G568" t="n">
+        <v>354.3314285714285</v>
+      </c>
+      <c r="H568" t="n">
+        <v>339.9144444444445</v>
+      </c>
+      <c r="I568" t="n">
+        <v>334.2222222222222</v>
+      </c>
+      <c r="J568" t="n">
+        <v>320.355</v>
+      </c>
+      <c r="K568" t="n">
+        <v>340.3457142857143</v>
+      </c>
+      <c r="L568" t="n">
+        <v>345.6014285714285</v>
+      </c>
+      <c r="M568" t="n">
+        <v>345.5014285714286</v>
+      </c>
+      <c r="N568" t="n">
+        <v>355.51</v>
+      </c>
+      <c r="O568" t="n">
+        <v>362.33</v>
+      </c>
+      <c r="P568" t="n">
+        <v>364.8166666666667</v>
+      </c>
+      <c r="Q568" t="inlineStr"/>
+      <c r="R568" t="inlineStr"/>
+      <c r="S568" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -30505,7 +30629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B595"/>
+  <dimension ref="A1:B597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36463,6 +36587,26 @@
       </c>
       <c r="B595" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -37943,7 +38087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S566"/>
+  <dimension ref="A1:S568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81572,14 +81716,204 @@
           <t>-41.767271523428455,171.45908877112385</t>
         </is>
       </c>
-      <c r="P566" t="inlineStr"/>
-      <c r="Q566" t="inlineStr"/>
+      <c r="P566" t="inlineStr">
+        <is>
+          <t>-41.76662607676915,171.45880201409105</t>
+        </is>
+      </c>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>-41.76597599637433,171.45851697616772</t>
+        </is>
+      </c>
       <c r="R566" t="inlineStr">
         <is>
           <t>-41.765378583610705,171.4581100171139</t>
         </is>
       </c>
       <c r="S566" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:38+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>-41.77430938885562,171.4567759291568</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>-41.773988589612856,171.45749570805145</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>-41.77353820063335,171.45815209063605</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>-41.77301000708211,171.4587050439711</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>-41.77249259631364,171.45922196104462</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>-41.7718943939351,171.4597488625874</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>-41.77120769933016,171.45979888421752</t>
+        </is>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>-41.770537049498785,171.45994950359923</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>-41.76986033128349,171.45991708714604</t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>-41.76918123183182,171.45983644067258</t>
+        </is>
+      </c>
+      <c r="M567" t="inlineStr">
+        <is>
+          <t>-41.768517536755205,171.45978918357292</t>
+        </is>
+      </c>
+      <c r="N567" t="inlineStr">
+        <is>
+          <t>-41.76791514104332,171.4593571948251</t>
+        </is>
+      </c>
+      <c r="O567" t="inlineStr">
+        <is>
+          <t>-41.767281970816235,171.45905627696817</t>
+        </is>
+      </c>
+      <c r="P567" t="inlineStr">
+        <is>
+          <t>-41.7666363811174,171.45877442373902</t>
+        </is>
+      </c>
+      <c r="Q567" t="inlineStr">
+        <is>
+          <t>-41.76600719130019,171.45843826327376</t>
+        </is>
+      </c>
+      <c r="R567" t="inlineStr">
+        <is>
+          <t>-41.765365354562505,171.45814339729245</t>
+        </is>
+      </c>
+      <c r="S567" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:19:57+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-41.77411374324563,171.4558636584686</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>-41.77422092007012,171.45675165753988</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>-41.774007454380154,171.45751354821658</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>-41.773515011259775,171.45811972127993</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>-41.77302188809065,171.45872460960524</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>-41.772475667650745,171.45916914945622</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>-41.77185614426158,171.4595186341572</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>-41.771204299859455,171.45977144301173</t>
+        </is>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>-41.77054312049256,171.46002606197632</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>-41.769856542277935,171.45986738930722</t>
+        </is>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>-41.76918003981983,171.4598842205011</t>
+        </is>
+      </c>
+      <c r="M568" t="inlineStr">
+        <is>
+          <t>-41.768531719376305,171.45972171659005</t>
+        </is>
+      </c>
+      <c r="N568" t="inlineStr">
+        <is>
+          <t>-41.76794075480196,171.45926970246734</t>
+        </is>
+      </c>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>-41.76734589867511,171.45885744345736</t>
+        </is>
+      </c>
+      <c r="P568" t="inlineStr">
+        <is>
+          <t>-41.766760180161654,171.4584429441755</t>
+        </is>
+      </c>
+      <c r="Q568" t="inlineStr"/>
+      <c r="R568" t="inlineStr"/>
+      <c r="S568" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -36780,28 +36780,28 @@
         <v>0.0527</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1544258975113871</v>
+        <v>-0.151573374720941</v>
       </c>
       <c r="J2" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K2" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008067274876110475</v>
+        <v>0.007813896849462099</v>
       </c>
       <c r="M2" t="n">
-        <v>10.45342347847287</v>
+        <v>10.43989055908512</v>
       </c>
       <c r="N2" t="n">
-        <v>174.8988228368231</v>
+        <v>174.4826401496303</v>
       </c>
       <c r="O2" t="n">
-        <v>13.2249318651108</v>
+        <v>13.20918771725311</v>
       </c>
       <c r="P2" t="n">
-        <v>366.508033037116</v>
+        <v>366.4800839368922</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36858,28 +36858,28 @@
         <v>0.0677</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3624658182827679</v>
+        <v>-0.3633005078758847</v>
       </c>
       <c r="J3" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K3" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06113665465542673</v>
+        <v>0.06185523563090811</v>
       </c>
       <c r="M3" t="n">
-        <v>8.370658957756447</v>
+        <v>8.355269487315546</v>
       </c>
       <c r="N3" t="n">
-        <v>118.7729654091699</v>
+        <v>118.3465624676038</v>
       </c>
       <c r="O3" t="n">
-        <v>10.89830103315053</v>
+        <v>10.87872062641576</v>
       </c>
       <c r="P3" t="n">
-        <v>359.7015082457933</v>
+        <v>359.7097432422077</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36936,28 +36936,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5335005810120539</v>
+        <v>-0.5363254366854274</v>
       </c>
       <c r="J4" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K4" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1417059560696059</v>
+        <v>0.1440090270785379</v>
       </c>
       <c r="M4" t="n">
-        <v>7.746902801915414</v>
+        <v>7.727091962333869</v>
       </c>
       <c r="N4" t="n">
-        <v>100.1970202034632</v>
+        <v>99.80230741673337</v>
       </c>
       <c r="O4" t="n">
-        <v>10.00984616282704</v>
+        <v>9.990110480707076</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5951252135116</v>
+        <v>368.6233548317035</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -37014,28 +37014,28 @@
         <v>0.0465</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5325424154544236</v>
+        <v>-0.5349040100377576</v>
       </c>
       <c r="J5" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K5" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1170729458462993</v>
+        <v>0.1188588564936547</v>
       </c>
       <c r="M5" t="n">
-        <v>8.631465040483892</v>
+        <v>8.604868350829344</v>
       </c>
       <c r="N5" t="n">
-        <v>124.7899091927525</v>
+        <v>124.2784329108418</v>
       </c>
       <c r="O5" t="n">
-        <v>11.17094038981287</v>
+        <v>11.14802372220484</v>
       </c>
       <c r="P5" t="n">
-        <v>365.5556815061726</v>
+        <v>365.5792405971288</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -37092,28 +37092,28 @@
         <v>0.0367</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7149387075867395</v>
+        <v>-0.7152494690441696</v>
       </c>
       <c r="J6" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K6" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1137880329204004</v>
+        <v>0.1147904228731671</v>
       </c>
       <c r="M6" t="n">
-        <v>11.72614166597019</v>
+        <v>11.67693988208718</v>
       </c>
       <c r="N6" t="n">
-        <v>227.8643151399528</v>
+        <v>226.8221677151243</v>
       </c>
       <c r="O6" t="n">
-        <v>15.09517522720266</v>
+        <v>15.06061644538909</v>
       </c>
       <c r="P6" t="n">
-        <v>371.5281329463952</v>
+        <v>371.5312763560992</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -37170,28 +37170,28 @@
         <v>0.0428</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8439791520470308</v>
+        <v>-0.83393582901008</v>
       </c>
       <c r="J7" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K7" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09565530326634353</v>
+        <v>0.0943209034052569</v>
       </c>
       <c r="M7" t="n">
-        <v>15.33901548310721</v>
+        <v>15.31552666652828</v>
       </c>
       <c r="N7" t="n">
-        <v>368.9760178510309</v>
+        <v>367.7302053167965</v>
       </c>
       <c r="O7" t="n">
-        <v>19.2087484717519</v>
+        <v>19.17629279388476</v>
       </c>
       <c r="P7" t="n">
-        <v>363.3366819347243</v>
+        <v>363.2325613001207</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -37248,28 +37248,28 @@
         <v>0.0469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6410781876153683</v>
+        <v>-0.6438926995445563</v>
       </c>
       <c r="J8" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K8" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09700786352863411</v>
+        <v>0.09835347589628129</v>
       </c>
       <c r="M8" t="n">
-        <v>11.69364977879211</v>
+        <v>11.68480530810342</v>
       </c>
       <c r="N8" t="n">
-        <v>219.0166684327374</v>
+        <v>218.5216165829817</v>
       </c>
       <c r="O8" t="n">
-        <v>14.79921175038513</v>
+        <v>14.7824766728374</v>
       </c>
       <c r="P8" t="n">
-        <v>350.3039299276347</v>
+        <v>350.3322928701019</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -37326,28 +37326,28 @@
         <v>0.1025</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6170277962451391</v>
+        <v>-0.6162492888582329</v>
       </c>
       <c r="J9" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K9" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07640040177586149</v>
+        <v>0.07683945193114916</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54354176524673</v>
+        <v>12.49347870955672</v>
       </c>
       <c r="N9" t="n">
-        <v>262.5261155518597</v>
+        <v>261.3693271903903</v>
       </c>
       <c r="O9" t="n">
-        <v>16.20265766940287</v>
+        <v>16.16692077021441</v>
       </c>
       <c r="P9" t="n">
-        <v>348.2289522131428</v>
+        <v>348.2210714138704</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -37404,28 +37404,28 @@
         <v>0.0882</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5771471745680664</v>
+        <v>-0.5825639205436824</v>
       </c>
       <c r="J10" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K10" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0772416681546616</v>
+        <v>0.07915830408673696</v>
       </c>
       <c r="M10" t="n">
-        <v>11.74933747975579</v>
+        <v>11.72590867792067</v>
       </c>
       <c r="N10" t="n">
-        <v>226.1152623173001</v>
+        <v>225.31530906246</v>
       </c>
       <c r="O10" t="n">
-        <v>15.03712945735655</v>
+        <v>15.01050662244483</v>
       </c>
       <c r="P10" t="n">
-        <v>345.050250130464</v>
+        <v>345.1053160036578</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -37482,28 +37482,28 @@
         <v>0.0775</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5949214014046554</v>
+        <v>-0.5947125928356136</v>
       </c>
       <c r="J11" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K11" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07902366138510464</v>
+        <v>0.07962261148829897</v>
       </c>
       <c r="M11" t="n">
-        <v>11.98651107106856</v>
+        <v>11.94053544084322</v>
       </c>
       <c r="N11" t="n">
-        <v>236.115044524557</v>
+        <v>235.0398947344539</v>
       </c>
       <c r="O11" t="n">
-        <v>15.36603541986537</v>
+        <v>15.33101088429768</v>
       </c>
       <c r="P11" t="n">
-        <v>353.5586071223218</v>
+        <v>353.5564732319599</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37560,28 +37560,28 @@
         <v>0.0377</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5451603660767432</v>
+        <v>-0.5588736047095856</v>
       </c>
       <c r="J12" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K12" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06329842097167038</v>
+        <v>0.06659433396063019</v>
       </c>
       <c r="M12" t="n">
-        <v>12.47483508950893</v>
+        <v>12.48738868587799</v>
       </c>
       <c r="N12" t="n">
-        <v>248.6853586169798</v>
+        <v>248.6325140238379</v>
       </c>
       <c r="O12" t="n">
-        <v>15.7697608928284</v>
+        <v>15.76808529986561</v>
       </c>
       <c r="P12" t="n">
-        <v>377.2261074296052</v>
+        <v>377.3670444688104</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37638,28 +37638,28 @@
         <v>0.0443</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5093240622989602</v>
+        <v>-0.5271663178500079</v>
       </c>
       <c r="J13" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K13" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02763595928209728</v>
+        <v>0.0297343291814286</v>
       </c>
       <c r="M13" t="n">
-        <v>17.34528339591732</v>
+        <v>17.34502519618013</v>
       </c>
       <c r="N13" t="n">
-        <v>512.0811164963942</v>
+        <v>511.2083034707067</v>
       </c>
       <c r="O13" t="n">
-        <v>22.62920936525168</v>
+        <v>22.60991604298226</v>
       </c>
       <c r="P13" t="n">
-        <v>374.4033568853612</v>
+        <v>374.5875076227452</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37716,28 +37716,28 @@
         <v>0.0475</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3794306929081996</v>
+        <v>-0.3868028609402937</v>
       </c>
       <c r="J14" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K14" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01413990651086505</v>
+        <v>0.01482846856109377</v>
       </c>
       <c r="M14" t="n">
-        <v>18.71744878617727</v>
+        <v>18.65531942315712</v>
       </c>
       <c r="N14" t="n">
-        <v>571.4314148170015</v>
+        <v>568.697983312197</v>
       </c>
       <c r="O14" t="n">
-        <v>23.90463166034987</v>
+        <v>23.84738944438567</v>
       </c>
       <c r="P14" t="n">
-        <v>368.9544567163314</v>
+        <v>369.0296236110565</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -37794,28 +37794,28 @@
         <v>0.0616</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.112911200916442</v>
+        <v>-0.1228808392429651</v>
       </c>
       <c r="J15" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K15" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009442387887715897</v>
+        <v>0.001129473914721735</v>
       </c>
       <c r="M15" t="n">
-        <v>22.05836014643492</v>
+        <v>21.97603584727374</v>
       </c>
       <c r="N15" t="n">
-        <v>764.8602066993419</v>
+        <v>761.3935455784116</v>
       </c>
       <c r="O15" t="n">
-        <v>27.65610613769303</v>
+        <v>27.59336053434615</v>
       </c>
       <c r="P15" t="n">
-        <v>365.6312040420432</v>
+        <v>365.732516076042</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -37872,28 +37872,28 @@
         <v>0.0333</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03906799515670285</v>
+        <v>-0.06703351223836536</v>
       </c>
       <c r="J16" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K16" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L16" t="n">
-        <v>9.380645165091295e-05</v>
+        <v>0.0002796553467130369</v>
       </c>
       <c r="M16" t="n">
-        <v>24.00389332375978</v>
+        <v>23.95764526136677</v>
       </c>
       <c r="N16" t="n">
-        <v>937.819097043365</v>
+        <v>934.1160683170664</v>
       </c>
       <c r="O16" t="n">
-        <v>30.62383217435997</v>
+        <v>30.56331245655592</v>
       </c>
       <c r="P16" t="n">
-        <v>361.6943823303585</v>
+        <v>361.972835371944</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -37950,28 +37950,28 @@
         <v>0.0398</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4449991292154137</v>
+        <v>0.4098764654717235</v>
       </c>
       <c r="J17" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K17" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01420506258728693</v>
+        <v>0.01209663582872755</v>
       </c>
       <c r="M17" t="n">
-        <v>22.7763367752103</v>
+        <v>22.86062779294631</v>
       </c>
       <c r="N17" t="n">
-        <v>804.7382695752276</v>
+        <v>807.4469412750403</v>
       </c>
       <c r="O17" t="n">
-        <v>28.36790915057413</v>
+        <v>28.41561087281145</v>
       </c>
       <c r="P17" t="n">
-        <v>345.9293224342695</v>
+        <v>346.2778085053179</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -38028,28 +38028,28 @@
         <v>0.0516</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06326604403612748</v>
+        <v>0.05013427170008506</v>
       </c>
       <c r="J18" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K18" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003696704124502848</v>
+        <v>0.000232846775202078</v>
       </c>
       <c r="M18" t="n">
-        <v>20.28436732400267</v>
+        <v>20.30357850001295</v>
       </c>
       <c r="N18" t="n">
-        <v>650.3395970671741</v>
+        <v>650.2290638087921</v>
       </c>
       <c r="O18" t="n">
-        <v>25.50175674472592</v>
+        <v>25.49958948314251</v>
       </c>
       <c r="P18" t="n">
-        <v>335.4556782433131</v>
+        <v>335.5834393144917</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">

--- a/data/nzd0370/nzd0370.xlsx
+++ b/data/nzd0370/nzd0370.xlsx
@@ -36771,13 +36771,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.044</v>
+        <v>0.0325</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0527</v>
+        <v>0.0372</v>
       </c>
       <c r="I2" t="n">
         <v>-0.151573374720941</v>
@@ -36852,10 +36852,10 @@
         <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0585</v>
+        <v>0.061</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0677</v>
+        <v>0.0751</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3632992873734725</v>
@@ -36927,13 +36927,13 @@
         <v>0.8788072317799334</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0581</v>
+        <v>0.0527</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.059</v>
       </c>
       <c r="I4" t="n">
         <v>-0.5363418005690301</v>
@@ -37005,13 +37005,13 @@
         <v>0.8157608791337774</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0404</v>
+        <v>0.0448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0465</v>
+        <v>0.051</v>
       </c>
       <c r="I5" t="n">
         <v>-0.5348684006925545</v>
@@ -37086,10 +37086,10 @@
         <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0329</v>
+        <v>0.0334</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0367</v>
+        <v>0.0354</v>
       </c>
       <c r="I6" t="n">
         <v>-0.715236747645673</v>
@@ -37161,13 +37161,13 @@
         <v>0.6916539743059555</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.025</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0337</v>
+        <v>0.025</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0428</v>
+        <v>0.0253</v>
       </c>
       <c r="I7" t="n">
         <v>-0.8339271525490097</v>
@@ -37239,13 +37239,13 @@
         <v>0.6286076216602632</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0404</v>
+        <v>0.0347</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0469</v>
+        <v>0.0354</v>
       </c>
       <c r="I8" t="n">
         <v>-0.6438627604800775</v>
@@ -37317,13 +37317,13 @@
         <v>0.5655612690146635</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0809</v>
+        <v>0.0396</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1025</v>
+        <v>0.043</v>
       </c>
       <c r="I9" t="n">
         <v>-0.6162491073238335</v>
@@ -37395,13 +37395,13 @@
         <v>0.5025427498383744</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.0483</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0882</v>
+        <v>0.0519</v>
       </c>
       <c r="I10" t="n">
         <v>-0.5825409039184251</v>
@@ -37473,13 +37473,13 @@
         <v>0.4394963971923536</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0605</v>
+        <v>0.0479</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0775</v>
+        <v>0.0519</v>
       </c>
       <c r="I11" t="n">
         <v>-0.5947606257264437</v>
@@ -37554,10 +37554,10 @@
         <v>0.035</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0336</v>
+        <v>0.0343</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0377</v>
+        <v>0.0372</v>
       </c>
       <c r="I12" t="n">
         <v>-0.5588455795835324</v>
@@ -37629,13 +37629,13 @@
         <v>0.3151314554671307</v>
       </c>
       <c r="F13" t="n">
-        <v>0.035</v>
+        <v>0.025</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0288</v>
+        <v>0.0248</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0443</v>
+        <v>0.0258</v>
       </c>
       <c r="I13" t="n">
         <v>-0.5271481894516759</v>
@@ -37707,13 +37707,13 @@
         <v>0.252085102821359</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0351</v>
+        <v>0.0233</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0475</v>
+        <v>0.0254</v>
       </c>
       <c r="I14" t="n">
         <v>-0.3868028609402937</v>
@@ -37785,13 +37785,13 @@
         <v>0.1890387501755873</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0401</v>
+        <v>0.02</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0616</v>
+        <v>0.021</v>
       </c>
       <c r="I15" t="n">
         <v>-0.1228808392429652</v>
@@ -37863,13 +37863,13 @@
         <v>0.1260927052916485</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0249</v>
+        <v>0.0197</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0333</v>
+        <v>0.0205</v>
       </c>
       <c r="I16" t="n">
         <v>-0.06701742172731366</v>
@@ -37941,13 +37941,13 @@
         <v>0.06304635264582426</v>
       </c>
       <c r="F17" t="n">
-        <v>0.035</v>
+        <v>0.025</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0291</v>
+        <v>0.0231</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0398</v>
+        <v>0.0261</v>
       </c>
       <c r="I17" t="n">
         <v>0.4099049468591029</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0346</v>
+        <v>0.0239</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0516</v>
+        <v>0.0266</v>
       </c>
       <c r="I18" t="n">
         <v>0.05013427170008506</v>
